--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C518"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fusiontreeroot</t>
+          <t>preparation parameter</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0009812254059306793</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>heating rate</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002523314726169608</v>
+        <v>0.002297619599249894</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>preparation parameter</t>
+          <t>cooling rate</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0009700758848563529</v>
+        <v>0.001843173048464934</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>heating rate</t>
+          <t>slow cooling</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002273536266928463</v>
+        <v>0.0005066085021367894</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cooling rate</t>
+          <t>heating temperatures</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.001823799635810842</v>
+        <v>0.002004624618464864</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>slow cooling</t>
+          <t>annealing temperature</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0005009881754847586</v>
+        <v>0.004074397091965208</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>heating temperatures</t>
+          <t>heat treatment temperature</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001982160552569232</v>
+        <v>0.003239660312539337</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>annealing temperature</t>
+          <t>local structure</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.004029661513097927</v>
+        <v>0.002998785252857295</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>heat treatment temperature</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003203918119713882</v>
+        <v>0.001358885285832382</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>average atomic volume</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.005285786751848336</v>
+        <v>0.001008402151650658</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>local structure</t>
+          <t>volume mo6 polyhedron</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002966973436798134</v>
+        <v>0.0006465011045720706</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>volume xo4 polyhedron</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004354394057341652</v>
+        <v>0.0006344832096084525</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bottleneck</t>
+          <t>volume na1o6 polyhedron</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000448176695133723</v>
+        <v>0.0004846622619859742</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minimum bt2 and bt1</t>
+          <t>volume na2o8 polyhedron</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01179070118935381</v>
+        <v>0.0004846622619859742</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>average straight-line path width</t>
+          <t>volume na3o5 polyhedron</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.000434311160464614</v>
+        <v>0.0004846622619859742</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001423845125617047</v>
+        <v>0.0004403883622613398</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
+          <t>bottleneck</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001409862319015028</v>
+        <v>0.0004526440328376809</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
+          <t>minimum bt2 and bt1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002665446173519958</v>
+        <v>0.01191853356388314</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bt1</t>
+          <t>average straight-line path width</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0004388360516929255</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bt2</t>
+          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.001438890422301342</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>min_bt</t>
+          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.001424775625045669</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>conduction threshold</t>
+          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0008958010569071738</v>
+        <v>0.002694482469793991</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>volume diffusion pathways</t>
+          <t>bt1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001309455545583633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dimensionality diffusion pathways</t>
+          <t>bt2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0008818547929122146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>min_bt</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001344118248425707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>volume na</t>
+          <t>conduction threshold</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.004364370247658417</v>
+        <v>0.0009055785969476001</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>volume d2</t>
+          <t>volume diffusion pathways</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0007089691118864006</v>
+        <v>0.001323084493576258</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>volume d3</t>
+          <t>dimensionality diffusion pathways</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0006928089994783217</v>
+        <v>0.0008907683065106986</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>calculated effective volume species d1 according formula na</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.001829644817632612</v>
+        <v>0.0006879532719178159</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>calculated effective volume species d2 according formula d2</t>
+          <t>average shortest li-li separation distance</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0009169965534254026</v>
+        <v>0.0004147269633238088</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>calculated effective volume species d3 according formula d3</t>
+          <t>average shortest li-anion separation distance</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0009089164972213631</v>
+        <v>0.0004147269633238088</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>volume per anion</t>
+          <t>average shortest anion-anion separation distance</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0009067645729299652</v>
+        <v>0.0004147269633238088</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>volume mo6 polyhedron</t>
+          <t>jump distance</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0006396267468654827</v>
+        <v>0.0004606651214367413</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>volume xo4 polyhedron</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0006276470165186692</v>
+        <v>0.000718650400895228</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>volume na1o6 polyhedron</t>
+          <t>average neighbor count</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0004793982999623848</v>
+        <v>0.0003336210089698209</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>volume na2o8 polyhedron</t>
+          <t>average li-li bonds per</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0004793982999623848</v>
+        <v>0.0005918986640135193</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>volume na3o5 polyhedron</t>
+          <t>anion framework coordination</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0004793982999623848</v>
+        <v>0.001128112703962959</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>average atomic volume</t>
+          <t>average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0009977261596894871</v>
+        <v>0.000302524885834903</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>standard deviation neighbor count</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0006807716870895577</v>
+        <v>0.0002759719079416214</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>average shortest li-li separation distance</t>
+          <t>ratio average neighbor count average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0004102843395835996</v>
+        <v>0.0004704783117873849</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>average shortest li-anion separation distance</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0004102843395835996</v>
+        <v>0.0004641212862742105</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>average shortest anion-anion separation distance</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0004102843395835996</v>
+        <v>0.0005276410799753224</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jump distance</t>
+          <t>polyhedron</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0004559398271110854</v>
+        <v>9.510150012553998e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>o octahedra</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0007114940497444976</v>
+        <v>0.002157033053363838</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>standard deviation neighbor count</t>
+          <t>ions channel</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0002731507764102345</v>
+        <v>0.002250322368291565</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>average neighbor count</t>
+          <t>ion pathways</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0003300899433889968</v>
+        <v>0.003776970480003152</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>average sublattice neighbor count</t>
+          <t>vo polyhedron</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0002992688872099564</v>
+        <v>7.781271926488878e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>anion framework coordination</t>
+          <t>channel radius</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.001116244388363363</v>
+        <v>0.000565885696522357</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>average li-li bonds per</t>
+          <t>diffusion area</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.000585545348903417</v>
+        <v>0.001668493221042693</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ratio average neighbor count average sublattice neighbor count</t>
+          <t>diffusion path</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0004654800769705675</v>
+        <v>0.001252322143385549</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>polyhedron volume</t>
+          <t>ionic pathways</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0007190974499435772</v>
+        <v>0.002475395678354042</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>polyhedral mo6</t>
+          <t>migration path</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0003345288684391621</v>
+        <v>0.0007752322973446112</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>polyhedral xo4</t>
+          <t>migration paths</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0003165592729189419</v>
+        <v>0.0007004495554418185</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>polyhedral na1o6</t>
+          <t>anion distances</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9.41861980845153e-05</v>
+        <v>0.0005976579172842302</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>polyhedral na2o8</t>
+          <t>bottleneck area</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9.41861980845153e-05</v>
+        <v>0.0008534516800009999</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>polyhedral na3o5</t>
+          <t>bottleneck size</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9.41861980845153e-05</v>
+        <v>0.00141389010943343</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>channel section</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0004596941171900212</v>
+        <v>0.0005312649844859748</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>lithium pathway</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0005226011167878995</v>
+        <v>0.003201083616361428</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>polyhedron</t>
+          <t>na coordination</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.407665146144769e-05</v>
+        <v>0.004091632014544339</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>o octahedra</t>
+          <t>al coordinations</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.002134727109877033</v>
+        <v>0.001803312034716752</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ions channel</t>
+          <t>bottleneck width</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.002226488012521226</v>
+        <v>0.0004445818371014636</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ion pathways</t>
+          <t>diffusion length</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.003737720665717043</v>
+        <v>0.001269220348403745</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vo polyhedron</t>
+          <t>mobility pathway</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7.701521024370579e-05</v>
+        <v>0.0007951043011056131</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>channel radius</t>
+          <t>coordinated anion</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0005598502068858039</v>
+        <v>0.0004585576980567766</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>diffusion area</t>
+          <t>diffusion channel</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001650991988227247</v>
+        <v>0.001261557738591204</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>diffusion path</t>
+          <t>diffusion pathway</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001239673333560122</v>
+        <v>0.001273424200597639</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ionic pathways</t>
+          <t>ionic coordinates</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.002448563133766355</v>
+        <v>0.002394745491662034</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>migration path</t>
+          <t>m bottleneck site</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.000767512710874284</v>
+        <v>0.002011057559764119</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>migration paths</t>
+          <t>migration channel</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0006935116707664137</v>
+        <v>0.0007844678925502661</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>anion distances</t>
+          <t>polyhedron volume</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.000591738216922674</v>
+        <v>0.0007269933929789612</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bottleneck area</t>
+          <t>polyhedral mo6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0008442567000254617</v>
+        <v>0.0003379570266812128</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bottleneck size</t>
+          <t>polyhedral xo4</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001398765412049928</v>
+        <v>0.0003199301842357858</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>channel section</t>
+          <t>polyhedral na1o6</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0005252709606493569</v>
+        <v>9.519876280206825e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lithium pathway</t>
+          <t>polyhedral na2o8</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.003167725874115712</v>
+        <v>9.519876280206825e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>na coordination</t>
+          <t>polyhedral na3o5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.004048058148317813</v>
+        <v>9.519876280206825e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>al coordinations</t>
+          <t>mean jump distance</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001784443934957023</v>
+        <v>0.0004409608120635582</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bottleneck width</t>
+          <t>atomic coordinates</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0004401842711560106</v>
+        <v>0.000567877241077236</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>diffusion length</t>
+          <t>diffusion distance</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.00125635165449208</v>
+        <v>0.001385340193419442</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mobility pathway</t>
+          <t>migration channels</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0007871063340497159</v>
+        <v>0.0009574426375491441</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>coordinated anion</t>
+          <t>conducting pathway</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0004540125890053571</v>
+        <v>0.001136331832449406</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>diffusion channel</t>
+          <t>diffusion channels</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.001248543338635729</v>
+        <v>0.001434532483590082</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>diffusion pathway</t>
+          <t>diffusion pathways</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001260670694363657</v>
+        <v>0.001305184097448195</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ionic coordinates</t>
+          <t>bottleneck geometry</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.00236852466506678</v>
+        <v>0.0003980702471076232</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>m bottleneck site</t>
+          <t>conduction pathways</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001990525923610702</v>
+        <v>0.001094489314768037</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>migration channel</t>
+          <t>transport pathway</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0007763827159498912</v>
+        <v>0.0009209939222793657</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>mean jump distance</t>
+          <t>na diffusion channels</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0004364187690188509</v>
+        <v>0.003444559531791205</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>atomic coordinates</t>
+          <t>bottleneck m positions</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0005621155054671482</v>
+        <v>0.001696659157352058</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>diffusion distance</t>
+          <t>ion conduction pathway</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.001371209479313425</v>
+        <v>0.003050586238621981</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>migration channels</t>
+          <t>coordination polyhedron</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0009474525517880408</v>
+        <v>0.000406875950510384</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>conducting pathway</t>
+          <t>migration coordinate</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.001125253596948643</v>
+        <v>0.0006598810450496359</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>diffusion channels</t>
+          <t>zr + ion conducting pathway</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.001419613174473879</v>
+        <v>0.002188646116691611</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>diffusion pathways</t>
+          <t>sodium oxygen interatomic distance</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.001292124194162596</v>
+        <v>0.001914346430108343</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bottleneck geometry</t>
+          <t>dimensional atomic migration channels</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.000393990016670719</v>
+        <v>0.0009062640102331395</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>conduction pathways</t>
+          <t>general structure</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.001082962905573043</v>
+        <v>0.003098743185995088</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>transport pathway</t>
+          <t>lattice parameters</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0009115950238088722</v>
+        <v>0.002150667187820672</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>na diffusion channels</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.003407949531946295</v>
+        <v>0.0305927258525159</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bottleneck m positions</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.00167931910188326</v>
+        <v>0.01243354178532265</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ion conduction pathway</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.003018619675398131</v>
+        <v>0.00487728850126636</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>coordination polyhedron</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0004027853506029726</v>
+        <v>0.004371016256919411</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>migration coordinate</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.00065340643829972</v>
+        <v>0.001780593841786064</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>zr + ion conducting pathway</t>
+          <t>a/c</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.002165905135196975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>sodium oxygen interatomic distance</t>
+          <t>lattice parameter a</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.001894181706603565</v>
+        <v>0.01120191495492746</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dimensional atomic migration channels</t>
+          <t>lattice parameter c</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0008968427966250007</v>
+        <v>0.005148853599196372</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>general structure</t>
+          <t>lattice parameter v</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0030654164135289</v>
+        <v>0.002630102504510944</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>lattice parameters</t>
+          <t>packing fraction sublattice</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.002127710411863265</v>
+        <v>0.0002997911251375743</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>packing fraction full crystal</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03026568822269094</v>
+        <v>0.001049994808356792</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>structure disorder</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0123046224581362</v>
+        <v>0.002887388458466902</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>configurational entropy na+</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.004828330820112814</v>
+        <v>0.0001060145533068526</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>configurational entropy na+ 6b site</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.004325565584705969</v>
+        <v>0.0005623218292724907</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>configurational entropy na+ 18e site</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.001762543070980205</v>
+        <v>0.0005369151942122797</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>a/c</t>
+          <t>configurational entropy na+ 36f site</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.0005132218218172592</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>lattice parameter a</t>
+          <t>configurational entropy cationic m site</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.01108215551696683</v>
+        <v>0.001255083706937398</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>lattice parameter c</t>
+          <t>configurational entropy cationic x site</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.005095133595448583</v>
+        <v>0.001928248092495954</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>lattice parameter v</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.002603036382774121</v>
+        <v>2.449413380718295e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>packing fraction sublattice</t>
+          <t>lattice distortion</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0002962377793375847</v>
+        <v>0.001317415766858794</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>packing fraction full crystal</t>
+          <t>configurate entropy</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.001038937669187672</v>
+        <v>0.0001414750312955507</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>volume effect</t>
+          <t>configuration entropy na 6b</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.001439214555281854</v>
+        <v>0.002126309180187404</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ion arrangement</t>
+          <t>configuration entropy na 18e</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.003614682067398105</v>
+        <v>0.002094550886362141</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>packing mode</t>
+          <t>configuration entropy na 36f</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0004252381404427458</v>
+        <v>0.002064934170868365</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>packing fraciton</t>
+          <t>configuration entropy na all</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7.492105439321059e-05</v>
+        <v>0.002821927076343073</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ionic diffusion</t>
+          <t>configuration entropy m</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.003218086211141051</v>
+        <v>0.001375862084189649</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>haven ratio</t>
+          <t>configuration entropy x</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0007764932173496839</v>
+        <v>0.002497802726787243</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jump frequency</t>
+          <t>c axis</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.001338942731550175</v>
+        <v>0.006725619336657473</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>attempt frequency</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.001323066290345908</v>
+        <v>0.0002829500625911014</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>concerted migration</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0005987306827508527</v>
+        <v>0.0005514345173499221</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>percentage correlated jumps</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0002113176145019184</v>
+        <v>0.001132041299901439</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>all jump events</t>
+          <t>expansion</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.00114494683667063</v>
+        <v>0.0009506802229466438</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lattice dynamics</t>
+          <t>distortion</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.001279458194456584</v>
+        <v>0.0005123677891477144</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>lattice softness</t>
+          <t>m skeleton</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.001055568538655687</v>
+        <v>0.001902553264234694</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>lattice symmetry</t>
+          <t>a / c ratio</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.001610305390058184</v>
+        <v>0.01114478289047214</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>debye frequency</t>
+          <t>axis length</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.001369890380065324</v>
+        <v>0.0007367052349393604</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>average phonon band center</t>
+          <t>c parameter</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0006081062483308551</v>
+        <v>0.006662048526509623</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>dielectric constant</t>
+          <t>cell volume</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.001045550381343836</v>
+        <v>0.00279334568774119</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>geometry factor</t>
+          <t>parameter a</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.000562673816634483</v>
+        <v>0.01574164056010625</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>structure disorder</t>
+          <t>parameter c</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.002856671110942888</v>
+        <v>0.006662048526509623</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>configurational entropy na+</t>
+          <t>ion mobility</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.0001049745466052751</v>
+        <v>0.004076193597983999</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 6b site</t>
+          <t>a parameter</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0005566368359355222</v>
+        <v>0.01574164056010625</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 18e site</t>
+          <t>c parameters</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0005314677840518882</v>
+        <v>0.007306206208197059</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 36f site</t>
+          <t>hopping rate</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0005080410253377268</v>
+        <v>0.001842087625009742</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>configurational entropy cationic m site</t>
+          <t>ion dynamics</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.001242244926723365</v>
+        <v>0.003744786381110316</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>configurational entropy cationic x site</t>
+          <t>lattice size</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.00190705658934854</v>
+        <v>0.002248799965299526</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>diffusion</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2.428545238400482e-06</v>
+        <v>0.002082727114921068</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>lattice distortion</t>
+          <t>na diffusion</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.001303915147143191</v>
+        <v>0.004773670371557259</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>configurate entropy</t>
+          <t>ion migration</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.0001400803726774852</v>
+        <v>0.004077423651435087</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>configuration entropy na 6b</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.002103648968321292</v>
+        <v>0.0003885591506616513</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>configuration entropy na 18e</t>
+          <t>hopping rates</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.00207218765346675</v>
+        <v>0.0007516678008809671</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>configuration entropy na 36f</t>
+          <t>ion diffusion</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.002042904205074047</v>
+        <v>0.004554513497476024</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>configuration entropy na all</t>
+          <t>volume change</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.002791710490795184</v>
+        <v>0.001385239624705942</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>configuration entropy m</t>
+          <t>volume effect</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001361704720743546</v>
+        <v>0.001454992790122016</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>configuration entropy x</t>
+          <t>cell parameter</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.002469724158452171</v>
+        <v>0.002559180678673298</v>
       </c>
     </row>
     <row r="152">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>compressive strain</t>
+          <t>jump distances</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.000131608108453583</v>
+        <v>0.0004749515673151544</v>
       </c>
     </row>
     <row r="153">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>c axis</t>
+          <t>lattice strain</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.006655795964882437</v>
+        <v>0.001173241920915061</v>
       </c>
     </row>
     <row r="154">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>entropy</t>
+          <t>lattice stress</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.0002801607453549704</v>
+        <v>0.001222043203268337</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>lattice volume</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.0005460393393500444</v>
+        <v>0.001740674515201128</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>lower symmetry</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.001119901374481024</v>
+        <v>0.001484739276015867</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>expansion</t>
+          <t>migration rate</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.0009409773180431184</v>
+        <v>0.002134230789896901</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>distortion</t>
+          <t>volume changes</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0005071208886510367</v>
+        <v>0.001263440079464447</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>m skeleton</t>
+          <t>cell parameters</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.001882803840023795</v>
+        <v>0.003203338360360734</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>a / c ratio</t>
+          <t>ion arrangement</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.01102670147939622</v>
+        <v>0.003652798716310984</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>axis length</t>
+          <t>packing mode</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.0007290127545377704</v>
+        <v>0.0004296702759583145</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +2531,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>c parameter</t>
+          <t>packing fraciton</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.006592345690355202</v>
+        <v>7.571702742296191e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>cell volume</t>
+          <t>ionic diffusion</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.00276403928230291</v>
+        <v>0.003252938695826915</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>parameter a</t>
+          <t>haven ratio</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.01557287857263257</v>
+        <v>0.0007848482153381551</v>
       </c>
     </row>
     <row r="165">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>parameter c</t>
+          <t>jump frequency</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.006592345690355202</v>
+        <v>0.001353207797600544</v>
       </c>
     </row>
     <row r="166">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ion mobility</t>
+          <t>attempt frequency</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.004033679382777798</v>
+        <v>0.001337189123412134</v>
       </c>
     </row>
     <row r="167">
@@ -2596,11 +2596,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>a parameter</t>
+          <t>concerted migration</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.01557287857263257</v>
+        <v>0.0006047395059831115</v>
       </c>
     </row>
     <row r="168">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>c parameters</t>
+          <t>percentage correlated jumps</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.007229666938113692</v>
+        <v>0.0002134746737458794</v>
       </c>
     </row>
     <row r="169">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>hopping rate</t>
+          <t>all jump events</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.001822884144938936</v>
+        <v>0.001157329519993479</v>
       </c>
     </row>
     <row r="170">
@@ -2635,11 +2635,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ion dynamics</t>
+          <t>bending strength</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.003705523598962005</v>
+        <v>0.0005344272069182346</v>
       </c>
     </row>
     <row r="171">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>lattice size</t>
+          <t>cation migration</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.002225031767300739</v>
+        <v>0.001336625675011253</v>
       </c>
     </row>
     <row r="172">
@@ -2661,11 +2661,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>diffusion</t>
+          <t>ion hopping rate</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.002061647271537293</v>
+        <v>0.003570158376683489</v>
       </c>
     </row>
     <row r="173">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>na diffusion</t>
+          <t>lattice constant</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.00472313475921421</v>
+        <v>0.001738053886895435</v>
       </c>
     </row>
     <row r="174">
@@ -2687,11 +2687,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ion migration</t>
+          <t>lattice disorder</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.004035083120405901</v>
+        <v>0.001277159944062149</v>
       </c>
     </row>
     <row r="175">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>sodium diffusion</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.0003845154443967982</v>
+        <v>0.003489167238294073</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>hopping rates</t>
+          <t>sodium migration</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.0007435576599771577</v>
+        <v>0.003012077392253136</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ion diffusion</t>
+          <t>unit cell volume</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.004507243743091739</v>
+        <v>0.002437934254085778</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>volume change</t>
+          <t>volume expansion</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.001370273937503007</v>
+        <v>0.001154782754389513</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>cell parameter</t>
+          <t>volume variation</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.002532014619377159</v>
+        <v>0.001124244570986747</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>jump distances</t>
+          <t>lattice dynamics</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.000470375515510998</v>
+        <v>0.001292868313379762</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lattice strain</t>
+          <t>lattice softness</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.001161316701019956</v>
+        <v>0.001066502812447976</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>lattice stress</t>
+          <t>lattice symmetry</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.001209048354774901</v>
+        <v>0.001627252522235656</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>lattice volume</t>
+          <t>debye frequency</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.001722413827030526</v>
+        <v>0.001384610356672094</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>lower symmetry</t>
+          <t>average phonon band center</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.001468734100995599</v>
+        <v>0.0006148127699143995</v>
       </c>
     </row>
     <row r="185">
@@ -2830,11 +2830,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>migration rate</t>
+          <t>dielectric constant</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.002112382420534969</v>
+        <v>0.001056835563427363</v>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>volume changes</t>
+          <t>geometry factor</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.001248997754296857</v>
+        <v>0.0005686309358614114</v>
       </c>
     </row>
     <row r="187">
@@ -2856,11 +2856,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>cell parameters</t>
+          <t>lattice expansion</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.003169335867135649</v>
+        <v>0.001536571983758258</v>
       </c>
     </row>
     <row r="188">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>bending strength</t>
+          <t>anionic framework</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.0005288447935277439</v>
+        <v>0.001219889465444999</v>
       </c>
     </row>
     <row r="189">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>cation migration</t>
+          <t>crystal parameter</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.001323019296836626</v>
+        <v>0.001566567146896243</v>
       </c>
     </row>
     <row r="190">
@@ -2895,11 +2895,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ion hopping rate</t>
+          <t>hopping frequency</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.00353286950150802</v>
+        <v>0.001508649858655148</v>
       </c>
     </row>
     <row r="191">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>lattice constant</t>
+          <t>hopping mechanism</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.001720016627580476</v>
+        <v>0.0009188290840471707</v>
       </c>
     </row>
     <row r="192">
@@ -2921,11 +2921,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>lattice disorder</t>
+          <t>lattice constants</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.001264132437836392</v>
+        <v>0.001250418148057065</v>
       </c>
     </row>
     <row r="193">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sodium diffusion</t>
+          <t>thermal expansion</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.003452351735854262</v>
+        <v>0.001527295539706813</v>
       </c>
     </row>
     <row r="194">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sodium migration</t>
+          <t>disorder character</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.002980191113168424</v>
+        <v>0.0003730164059678549</v>
       </c>
     </row>
     <row r="195">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>unit cell volume</t>
+          <t>dynamic parameters</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.002412355986617924</v>
+        <v>0.001260607482631657</v>
       </c>
     </row>
     <row r="196">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>volume expansion</t>
+          <t>geometrical factor</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.001142547783234413</v>
+        <v>0.0004668669999402234</v>
       </c>
     </row>
     <row r="197">
@@ -2986,11 +2986,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>volume variation</t>
+          <t>ion diffusion rate</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.001111854612364412</v>
+        <v>0.004082980383968887</v>
       </c>
     </row>
     <row r="198">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>lattice expansion</t>
+          <t>compressive strain</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.001520843361839232</v>
+        <v>0.0001328860186788045</v>
       </c>
     </row>
     <row r="199">
@@ -3012,11 +3012,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>anionic framework</t>
+          <t>c lattice parameter</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.001206767622971594</v>
+        <v>0.005148853599196372</v>
       </c>
     </row>
     <row r="200">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>crystal parameter</t>
+          <t>geometry parameters</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.001549753537473465</v>
+        <v>0.001261183546224518</v>
       </c>
     </row>
     <row r="201">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>hopping frequency</t>
+          <t>lattice deformation</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.001492553485470644</v>
+        <v>0.00113627344159559</v>
       </c>
     </row>
     <row r="202">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>hopping mechanism</t>
+          <t>mechanical strength</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.0009091389501871563</v>
+        <v>0.0006791537539278853</v>
       </c>
     </row>
     <row r="203">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>lattice constants</t>
+          <t>monoclinic symmetry</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.001237633380901706</v>
+        <v>0.001253018878539782</v>
       </c>
     </row>
     <row r="204">
@@ -3077,11 +3077,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>thermal expansion</t>
+          <t>structural disorder</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.001510923475103739</v>
+        <v>0.00129595931696644</v>
       </c>
     </row>
     <row r="205">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>disorder character</t>
+          <t>carrier hopping rate</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.0003692419836257952</v>
+        <v>0.001373047349530782</v>
       </c>
     </row>
     <row r="206">
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>dynamic parameters</t>
+          <t>crystal lattice size</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.001246825193353335</v>
+        <v>0.002246726318898313</v>
       </c>
     </row>
     <row r="207">
@@ -3116,11 +3116,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>geometrical factor</t>
+          <t>lattice parameters a</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.0004619745172351471</v>
+        <v>0.01163135340938575</v>
       </c>
     </row>
     <row r="208">
@@ -3129,11 +3129,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ion diffusion rate</t>
+          <t>rhombohedral lattice</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.0040406421003626</v>
+        <v>0.001915683248530247</v>
       </c>
     </row>
     <row r="209">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>c lattice parameter</t>
+          <t>structural expansion</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.005095133595448583</v>
+        <v>0.001555371356662549</v>
       </c>
     </row>
     <row r="210">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>geometry parameters</t>
+          <t>unit cell parameters</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.00124725737814945</v>
+        <v>0.002711262702498807</v>
       </c>
     </row>
     <row r="211">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>lattice deformation</t>
+          <t>diffusion coefficient</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.001124517740964788</v>
+        <v>0.001291163208256697</v>
       </c>
     </row>
     <row r="212">
@@ -3181,11 +3181,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>mechanical strength</t>
+          <t>high bending strength</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.0006709597967828014</v>
+        <v>0.002427476790221071</v>
       </c>
     </row>
     <row r="213">
@@ -3194,11 +3194,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>monoclinic symmetry</t>
+          <t>lithium ion migration</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.001239503432730978</v>
+        <v>0.004697631083106273</v>
       </c>
     </row>
     <row r="214">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>structural disorder</t>
+          <t>monoclinic distortion</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.001282683878346539</v>
+        <v>0.0009431821231629196</v>
       </c>
     </row>
     <row r="215">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>carrier hopping rate</t>
+          <t>rhombohedral symmetry</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001358692563212382</v>
+        <v>0.00142047202619603</v>
       </c>
     </row>
     <row r="216">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>crystal lattice size</t>
+          <t>structural distortion</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.002223167228991401</v>
+        <v>0.001336215139763085</v>
       </c>
     </row>
     <row r="217">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>lattice parameters a</t>
+          <t>structural parameters</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.01150703634880582</v>
+        <v>0.002169466560724963</v>
       </c>
     </row>
     <row r="218">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>rhombohedral lattice</t>
+          <t>diffusion coefficients</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.0018962406246773</v>
+        <v>0.001188999221328186</v>
       </c>
     </row>
     <row r="219">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>structural expansion</t>
+          <t>orientational disorder</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.001539394802349379</v>
+        <v>0.0002207260750518708</v>
       </c>
     </row>
     <row r="220">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>unit cell parameters</t>
+          <t>crystal lattice species</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.00268255370983975</v>
+        <v>0.001852101733311235</v>
       </c>
     </row>
     <row r="221">
@@ -3298,11 +3298,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>diffusion coefficient</t>
+          <t>mo stretching distortion</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.0012780064701594</v>
+        <v>0.0006523947455993231</v>
       </c>
     </row>
     <row r="222">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>high bending strength</t>
+          <t>low expansion coefﬁcients</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.002401644687167447</v>
+        <v>0.001463788848224772</v>
       </c>
     </row>
     <row r="223">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>lithium ion migration</t>
+          <t>crystal lattice parameters</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.004648641290617734</v>
+        <v>0.002181304467245744</v>
       </c>
     </row>
     <row r="224">
@@ -3337,11 +3337,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>monoclinic distortion</t>
+          <t>lattice volume contraction</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.0009331131898159844</v>
+        <v>0.001220631117188488</v>
       </c>
     </row>
     <row r="225">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>rhombohedral symmetry</t>
+          <t>lattice parameter variation</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.00140583660910014</v>
+        <v>0.001300874289469194</v>
       </c>
     </row>
     <row r="226">
@@ -3363,11 +3363,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>structural distortion</t>
+          <t>glass transition temperature</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.001322466587653339</v>
+        <v>0.004341462494804116</v>
       </c>
     </row>
     <row r="227">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>structural parameters</t>
+          <t>interstitial ionic diffusion</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.002146261852373413</v>
+        <v>0.002394946353409551</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>diffusion coefficients</t>
+          <t>phase transition temperature</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.001176953693759646</v>
+        <v>0.004799698106311195</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>orientational disorder</t>
+          <t>thermal expansion behaviours</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0002185330398016667</v>
+        <v>0.001044426209181821</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>crystal lattice species</t>
+          <t>anisotropic thermal expansion</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.001832989132343475</v>
+        <v>0.00110600100456733</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mo stretching distortion</t>
+          <t>hexagonal unit cell parameter</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.0006451891113305731</v>
+        <v>0.001864640153390953</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>low expansion coefﬁcients</t>
+          <t>rhombohedral crystal symmetry</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.001448455992463423</v>
+        <v>0.001694507692829315</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>crystal lattice parameters</t>
+          <t>characteristic parameter</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.002158286325366418</v>
+        <v>0.0007938968049962533</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>lattice volume contraction</t>
+          <t>temperature structure is measured</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.001207843608900725</v>
+        <v>0.008471750894265781</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>lattice parameter variation</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.001286789768170889</v>
+        <v>0.001285715604679021</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>glass transition temperature</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.004294562699658716</v>
+        <v>0.0005169249457864952</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>interstitial ionic diffusion</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.002369304500964252</v>
+        <v>0.0008532212299410994</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>phase transition temperature</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.004746900881017647</v>
+        <v>0.007100713660452744</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>thermal expansion behaviours</t>
+          <t>high porosity</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.001033261479357327</v>
+        <v>0.003365250451306621</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>anisotropic thermal expansion</t>
+          <t>high pressure</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.001094224709778655</v>
+        <v>0.003749645780752884</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>hexagonal unit cell parameter</t>
+          <t>lower porosity</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.001844943024518354</v>
+        <v>0.001177181098958396</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>rhombohedral crystal symmetry</t>
+          <t>oxygen pressure</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.001677037123524335</v>
+        <v>0.001579042874690185</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>room temperature</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.0005209242354460224</v>
+        <v>0.004673743897689761</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>characteristic parameter</t>
+          <t>constant pressure</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.0007848957645076652</v>
+        <v>0.001319679816950009</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>electrode porosity</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.001271442452193517</v>
+        <v>0.003068530399747457</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>high oxygen pressure</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.007023545167138366</v>
+        <v>0.003123887235402372</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>temperature structure is measured</t>
+          <t>absolute temperature</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.008379295691112674</v>
+        <v>0.003721564724526422</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>porosity</t>
+          <t>high oxygen pressures</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.00051084935958262</v>
+        <v>0.002771835243538315</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>high room temperature</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.0008445868127327218</v>
+        <v>0.005187021250735423</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>high porosity</t>
+          <t>increasing temperature</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.003329046917014737</v>
+        <v>0.004299447959920992</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>high pressure</t>
+          <t>characteristic parameters</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.003709343463320185</v>
+        <v>0.001438054486683689</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>lower porosity</t>
+          <t>characteristic temperature</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.001164208093546397</v>
+        <v>0.003898976001374326</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>oxygen pressure</t>
+          <t>room temperature condition</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.00156240749578885</v>
+        <v>0.003291384784058997</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>room temperature</t>
+          <t>overall parameters</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.004623470248954844</v>
+        <v>0.001436091756253457</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>constant pressure</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.001305383150859562</v>
+        <v>0.004339500051693516</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>electrode porosity</t>
+          <t>ewald summation energy</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.003036102691980645</v>
+        <v>0.001469307791783735</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>high oxygen pressure</t>
+          <t>formation energy competing phases</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.003090686488674851</v>
+        <v>0.002192702445933278</v>
       </c>
     </row>
     <row r="258">
@@ -3779,11 +3779,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>absolute temperature</t>
+          <t>electronegativity</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.003681186321883154</v>
+        <v>0.0002195768730074105</v>
       </c>
     </row>
     <row r="259">
@@ -3792,11 +3792,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>high oxygen pressures</t>
+          <t>average electronegativity sublattice</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.002742637345289551</v>
+        <v>0.0004419069276646618</v>
       </c>
     </row>
     <row r="260">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>high room temperature</t>
+          <t>average straight-line path electronegativity</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.005131394990785514</v>
+        <v>0.0003846003596034665</v>
       </c>
     </row>
     <row r="261">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>increasing temperature</t>
+          <t>energy landscape</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.004252890671362268</v>
+        <v>0.002196970453111303</v>
       </c>
     </row>
     <row r="262">
@@ -3831,11 +3831,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>characteristic parameters</t>
+          <t>migration energy</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.001422217012266155</v>
+        <v>0.002734023737266354</v>
       </c>
     </row>
     <row r="263">
@@ -3844,11 +3844,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>characteristic temperature</t>
+          <t>potential energy</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.003856633886789744</v>
+        <v>0.003483750953645475</v>
       </c>
     </row>
     <row r="264">
@@ -3857,11 +3857,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>room temperature condition</t>
+          <t>migration entropy</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.00325595491111857</v>
+        <v>0.0007057487427151468</v>
       </c>
     </row>
     <row r="265">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>gibbs energy change</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.002247087270441411</v>
+        <v>0.001949422567132823</v>
       </c>
     </row>
     <row r="266">
@@ -3883,11 +3883,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>overall parameters</t>
+          <t>oxygen vacancy formation</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.001420289642346289</v>
+        <v>0.001502426689610162</v>
       </c>
     </row>
     <row r="267">
@@ -3896,11 +3896,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>site energy landscapes</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.004294336698800488</v>
+        <v>0.002156640322742506</v>
       </c>
     </row>
     <row r="268">
@@ -3909,11 +3909,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>formation energy competing phases</t>
+          <t>interatomic parameter</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.002168728097280154</v>
+        <v>0.0005460051049218617</v>
       </c>
     </row>
     <row r="269">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ewald summation energy</t>
+          <t>bond length</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.001454039615565358</v>
+        <v>0.0007324051621946804</v>
       </c>
     </row>
     <row r="270">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>electronegativity</t>
+          <t>bond length mo</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0002174787033267175</v>
+        <v>0.0007292542722183793</v>
       </c>
     </row>
     <row r="271">
@@ -3948,11 +3948,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>electronegativity na</t>
+          <t>bond length xo</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.003801050475108923</v>
+        <v>0.000496377529037904</v>
       </c>
     </row>
     <row r="272">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>electronegativity dopant d2</t>
+          <t>bond strength</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.0002172356679804046</v>
+        <v>0.0007802656299264306</v>
       </c>
     </row>
     <row r="273">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>electronegativity dopant d3</t>
+          <t>average bond ionicity</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.000206462259708352</v>
+        <v>0.0006548543419006634</v>
       </c>
     </row>
     <row r="274">
@@ -3987,11 +3987,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula na</t>
+          <t>average bond ionicity sublattice</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.002044582556579802</v>
+        <v>0.0005434498855330349</v>
       </c>
     </row>
     <row r="275">
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d2</t>
+          <t>standard deviation bond ionicity</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.0008261155113224636</v>
+        <v>0.0005168969076397534</v>
       </c>
     </row>
     <row r="276">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d3</t>
+          <t>length</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0008207288071864372</v>
+        <v>0.0004557135818864218</v>
       </c>
     </row>
     <row r="277">
@@ -4026,11 +4026,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>electronegativity element m1</t>
+          <t>ba bonds</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0009092692528880296</v>
+        <v>0.0004818590338992292</v>
       </c>
     </row>
     <row r="278">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>electronegativity element m2</t>
+          <t>bond angles</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.0007757851980751297</v>
+        <v>0.0007080051617720547</v>
       </c>
     </row>
     <row r="279">
@@ -4052,11 +4052,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>electronegativity element x1</t>
+          <t>bond distances</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.0003413660457936174</v>
+        <v>0.0008628114530887907</v>
       </c>
     </row>
     <row r="280">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>electronegativity element x2</t>
+          <t>chemical bonds</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.0003461518604365595</v>
+        <v>0.001285125375064274</v>
       </c>
     </row>
     <row r="281">
@@ -4078,11 +4078,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>average effective electronegativity m site</t>
+          <t>cation repulsion</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.001499192636272529</v>
+        <v>0.0008485656609085665</v>
       </c>
     </row>
     <row r="282">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>average effective electronegativity x site</t>
+          <t>coordination bond</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.002164004298897704</v>
+        <v>0.0008638735716990835</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>average electronegativity m site</t>
+          <t>coulomb interaction</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.001657058294530577</v>
+        <v>0.0003895995310905117</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity m site</t>
+          <t>anion intercalation</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.001346113290719251</v>
+        <v>0.0007688681840652598</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity m site</t>
+          <t>oxygen bond lengths</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.001415505790177053</v>
+        <v>0.001063412687063107</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>average electronegativity a site</t>
+          <t>sodium cation bonds</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.008368370857083593</v>
+        <v>0.002332923567574792</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity a site</t>
+          <t>coulombic interactions</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.006715163340761666</v>
+        <v>0.000501051039086867</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity a site</t>
+          <t>intrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.006784555840219466</v>
+        <v>0.0004452776338482996</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>x_m_avg-x_na</t>
+          <t>radius</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>0.000691383030783374</v>
       </c>
     </row>
     <row r="290">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>x_m_avg-x_a</t>
+          <t>r_m_avg/r_na</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>average electronegativity sublattice</t>
+          <t>ionic radius na</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.0004372126070322533</v>
+        <v>0.004193048978569862</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>average straight-line path electronegativity</t>
+          <t>average radius m site</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.0003806328745017188</v>
+        <v>0.001792204767698619</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>energy landscape</t>
+          <t>average radius a site</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.002174116550735143</v>
+        <v>0.008576366970998544</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>migration energy</t>
+          <t>ionic radius element m1</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.002705831362483052</v>
+        <v>0.001912608234988758</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>potential energy</t>
+          <t>ionic radius element m2</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.003447721180112314</v>
+        <v>0.001811622012622711</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>migration entropy</t>
+          <t>ionic radius element x1</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.0006987433857602938</v>
+        <v>0.001482423438381763</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>gibbs energy change</t>
+          <t>ionic radius element x2</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.001928975824770229</v>
+        <v>0.001486043065739679</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>oxygen vacancy formation</t>
+          <t>maximum deviation radius m site</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.001486026929686205</v>
+        <v>0.001524628349765581</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>site energy landscapes</t>
+          <t>maximum deviation radius a site</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.002134405636730663</v>
+        <v>0.006951958112405521</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>interatomic parameter</t>
+          <t>standard deviation radius m site</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.0005397976611717471</v>
+        <v>0.0014543687351303</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>coulomb interaction</t>
+          <t>standard deviation radius a site</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.0003852171506679944</v>
+        <v>0.00688169849777024</v>
       </c>
     </row>
     <row r="302">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bond length</t>
+          <t>average effective ionic radius m site</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.0007249824768420215</v>
+        <v>0.002078204227300351</v>
       </c>
     </row>
     <row r="303">
@@ -4364,11 +4364,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>bond length mo</t>
+          <t>average effective ionic radius x site</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.0007217168463275959</v>
+        <v>0.002639174548599147</v>
       </c>
     </row>
     <row r="304">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>bond length xo</t>
+          <t>ionic radius formulaic leftmost dopant</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.0004913117720434344</v>
+        <v>0.001096617162830941</v>
       </c>
     </row>
     <row r="305">
@@ -4390,11 +4390,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>bond strength</t>
+          <t>ionic radius formulaic rightmost dopant</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.0007724741277936104</v>
+        <v>0.001096617162830941</v>
       </c>
     </row>
     <row r="306">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>average bond ionicity</t>
+          <t>calculated effective ionic radius according formulana</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.0006480954259157812</v>
+        <v>0.001452273395141191</v>
       </c>
     </row>
     <row r="307">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>average bond ionicity sublattice</t>
+          <t>calculated effective ionic radius according formulad2</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.0005377729991050447</v>
+        <v>0.001451949217836921</v>
       </c>
     </row>
     <row r="308">
@@ -4429,11 +4429,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>standard deviation bond ionicity</t>
+          <t>calculated effective ionic radius according formulad3</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.0005116548883053227</v>
+        <v>0.001451949217836921</v>
       </c>
     </row>
     <row r="309">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>length</t>
+          <t>radius m1</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.0004510560374468666</v>
+        <v>0.001228988308738366</v>
       </c>
     </row>
     <row r="310">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ba bonds</t>
+          <t>radius m2</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.0004766156118326579</v>
+        <v>0.001027015864006271</v>
       </c>
     </row>
     <row r="311">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>bond angles</t>
+          <t>radius x1</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0007006760413955257</v>
+        <v>0.0003686187155243747</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>bond distances</t>
+          <t>radius x2</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0008542759900632797</v>
+        <v>0.0003758579702402078</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>chemical bonds</t>
+          <t>effective mean ionic radius m</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.001270861700496713</v>
+        <v>0.001969883711284877</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>cation repulsion</t>
+          <t>effective mean ionic radius x</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.0008397791425114354</v>
+        <v>0.002643048096843434</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>coordination bond</t>
+          <t>volume na</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.000855201482990837</v>
+        <v>0.004411749457012915</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>anion intercalation</t>
+          <t>volume d2</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0007610099569319848</v>
+        <v>0.0007167073490570968</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>oxygen bond lengths</t>
+          <t>volume d3</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.001052633257297101</v>
+        <v>0.0007003876332394074</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>sodium cation bonds</t>
+          <t>volume per anion</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.002308084887929034</v>
+        <v>0.0009166342684499562</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>coulombic interactions</t>
+          <t>calculated effective volume species d1 according formula na</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.0004961378651835318</v>
+        <v>0.001849437770340649</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>intrinsic-atomic parameter</t>
+          <t>calculated effective volume species d2 according formula d2</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.0004400344612871029</v>
+        <v>0.000926892027789604</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>radius</t>
+          <t>calculated effective volume species d3 according formula d3</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0006842610080374428</v>
+        <v>0.0009187321698807593</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>r_m_avg/r_na</t>
+          <t>volume m1</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>0.00156273943626287</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>radius m1</t>
+          <t>volume m2</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.001216675419509525</v>
+        <v>0.001360766991530775</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>radius m2</t>
+          <t>volume x1</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.001016449337290176</v>
+        <v>0.000702369843048879</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>radius x1</t>
+          <t>volume x2</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0003648206088679074</v>
+        <v>0.0007096090977647121</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>radius x2</t>
+          <t>effective mean volume m</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.0003719993308323203</v>
+        <v>0.001523442633685158</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ionic radius na</t>
+          <t>effective mean volume x</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.004147802801891127</v>
+        <v>0.002364898115633353</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>average radius m site</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.001773753870708258</v>
+        <v>0.0008143123113324198</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>average radius a site</t>
+          <t>valence element m1</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.008485066433261277</v>
+        <v>0.001116737314590439</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ionic radius element m1</t>
+          <t>valence element m2</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.001892278803529906</v>
+        <v>0.0009820890181023759</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ionic radius element m2</t>
+          <t>valence element x1</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.001792165762420231</v>
+        <v>0.0005431575857811116</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ionic radius element x1</t>
+          <t>valence element x2</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.001466351398209097</v>
+        <v>0.000547983755591667</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ionic radius element x2</t>
+          <t>average ionic charge states m site</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.001469940759191303</v>
+        <v>0.002423753886972746</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>effective mean ionic radius m</t>
+          <t>average ionic charge states a site</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.001948866157467168</v>
+        <v>0.006946528689172697</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>effective mean ionic radius x</t>
+          <t>average effective ionic valence m site</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.002613677820092343</v>
+        <v>0.002098692440725191</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>maximum deviation radius m site</t>
+          <t>average effective ionic valence x site</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.001508862251119198</v>
+        <v>0.002659662762023988</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>maximum deviation radius a site</t>
+          <t>maximum deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.006877912301161613</v>
+        <v>0.002142406571409987</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>standard deviation radius m site</t>
+          <t>maximum deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.001439469751661396</v>
+        <v>0.006019070687581373</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>standard deviation radius a site</t>
+          <t>standard deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.006808519801703811</v>
+        <v>0.002092221132384785</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>average effective ionic radius m site</t>
+          <t>standard deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.00205621177280303</v>
+        <v>0.005968885248556172</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>average effective ionic radius x site</t>
+          <t>valence m1</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.002610221491657342</v>
+        <v>0.001290452949012889</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ionic radius formulaic leftmost dopant</t>
+          <t>valence m2</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.001084773861521663</v>
+        <v>0.001088480504280794</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ionic radius formulaic rightmost dopant</t>
+          <t>valence x1</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.001084773861521663</v>
+        <v>0.0004300833557988976</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulana</t>
+          <t>valence x2</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.001436566168986974</v>
+        <v>0.0004373226105147308</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad2</t>
+          <t>effective mean valence m</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.00143624546305345</v>
+        <v>0.001387299390060168</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad3</t>
+          <t>effective mean valence x</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.00143624546305345</v>
+        <v>0.002228754872008363</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>volume m1</t>
+          <t>x_m_avg-x_a</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.001546604039703657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>volume m2</t>
+          <t>x_m_avg-x_na</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.001346377957484308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>volume x1</t>
+          <t>electronegativity na</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.0006947492290620393</v>
+        <v>0.00384209525060043</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>volume x2</t>
+          <t>electronegativity dopant d2</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.0007019279510264522</v>
+        <v>0.0002193119738736243</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>effective mean volume m</t>
+          <t>electronegativity dopant d3</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.001507415719244824</v>
+        <v>0.000208432163328498</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>effective mean volume x</t>
+          <t>electronegativity element m1</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.002338430297526293</v>
+        <v>0.0009184921684821025</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>valence</t>
+          <t>electronegativity element m2</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.0008064675017949696</v>
+        <v>0.0007838438719940395</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>valence m1</t>
+          <t>electronegativity element x1</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.001277778666388289</v>
+        <v>0.0003449124396727751</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>valence m2</t>
+          <t>electronegativity element x2</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.001077552584168939</v>
+        <v>0.0003497386094833305</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>valence x1</t>
+          <t>average electronegativity m site</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.0004259238557466708</v>
+        <v>0.001674253228254628</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>valence x2</t>
+          <t>average electronegativity a site</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.0004331025777110837</v>
+        <v>0.008458415431554555</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>valence element m1</t>
+          <t>average effective electronegativity m site</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.001105598852377447</v>
+        <v>0.001514853785858675</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>valence element m2</t>
+          <t>average effective electronegativity x site</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.0009721147975645469</v>
+        <v>0.002188018171417231</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>valence element x1</t>
+          <t>maximum deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.0005376956452830348</v>
+        <v>0.001430267118210388</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>valence element x2</t>
+          <t>maximum deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.0005424814599259767</v>
+        <v>0.006857596880850328</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>effective mean valence m</t>
+          <t>standard deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.001373003032587139</v>
+        <v>0.001360007503575107</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>effective mean valence x</t>
+          <t>standard deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.002204017610868608</v>
+        <v>0.006787337266215047</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>average ionic charge states m site</t>
+          <t>calculated effective electronegativity according formula na</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.002398157839903953</v>
+        <v>0.002066686697308957</v>
       </c>
     </row>
     <row r="365">
@@ -5170,11 +5170,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>average ionic charge states a site</t>
+          <t>calculated effective electronegativity according formula d2</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.006872366214939299</v>
+        <v>0.000835005994657017</v>
       </c>
     </row>
     <row r="366">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>average effective ionic valence m site</t>
+          <t>calculated effective electronegativity according formula d3</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.002076579521762618</v>
+        <v>0.0008295660893844539</v>
       </c>
     </row>
     <row r="367">
@@ -5196,11 +5196,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>average effective ionic valence x site</t>
+          <t>electronegativity m1</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.00263058924061693</v>
+        <v>0.0009930852298503843</v>
       </c>
     </row>
     <row r="368">
@@ -5209,11 +5209,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states m site</t>
+          <t>electronegativity m2</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.002119748973169525</v>
+        <v>0.0007911127851182895</v>
       </c>
     </row>
     <row r="369">
@@ -5222,11 +5222,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states a site</t>
+          <t>electronegativity x1</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.005954784723199821</v>
+        <v>0.000132715636636393</v>
       </c>
     </row>
     <row r="370">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states m site</t>
+          <t>electronegativity x2</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.002070182902128238</v>
+        <v>0.0001399548913522261</v>
       </c>
     </row>
     <row r="371">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states a site</t>
+          <t>effective mean element electronegativity m</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.005905218652158534</v>
+        <v>0.00114475363353224</v>
       </c>
     </row>
     <row r="372">
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>polarizability</t>
+          <t>effective mean element electronegativity x</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>7.967708661282682e-05</v>
+        <v>0.001817918019090796</v>
       </c>
     </row>
     <row r="373">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>polarizability m1</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.0009143834587972175</v>
+        <v>0.00105164783046027</v>
       </c>
     </row>
     <row r="374">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>polarizability m2</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.0007141573765778676</v>
+        <v>0.0009020788190636957</v>
       </c>
     </row>
     <row r="375">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>polarizability x1</t>
+          <t>magnetic</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>6.252864815559946e-05</v>
+        <v>0.0008765823721907701</v>
       </c>
     </row>
     <row r="376">
@@ -5313,11 +5313,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>polarizability x2</t>
+          <t>valences</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>6.970737012001236e-05</v>
+        <v>6.690235660581491e-05</v>
       </c>
     </row>
     <row r="377">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>effective mean element polarizability m</t>
+          <t>ion radii</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.001105292187904435</v>
+        <v>0.003739757593747754</v>
       </c>
     </row>
     <row r="378">
@@ -5339,11 +5339,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>effective mean element polarizability x</t>
+          <t>ion radius</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.001770103850529611</v>
+        <v>0.003858841455407178</v>
       </c>
     </row>
     <row r="379">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ionization energy</t>
+          <t>ionic size</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.002183953666472477</v>
+        <v>0.00339914323138097</v>
       </c>
     </row>
     <row r="380">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>first ionization energy m1</t>
+          <t>active mass</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.001964279414594462</v>
+        <v>0.001275012771134888</v>
       </c>
     </row>
     <row r="381">
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>first ionization energy m2</t>
+          <t>cation size</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.001864166373484787</v>
+        <v>0.001959920056606246</v>
       </c>
     </row>
     <row r="382">
@@ -5391,11 +5391,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>first ionization energy x1</t>
+          <t>ionic radii</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.001538352009273653</v>
+        <v>0.002438182792098644</v>
       </c>
     </row>
     <row r="383">
@@ -5404,11 +5404,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>first ionization energy x2</t>
+          <t>cation sizes</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.001541941370255859</v>
+        <v>0.001035556140810339</v>
       </c>
     </row>
     <row r="384">
@@ -5417,11 +5417,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>second ionization energy m1</t>
+          <t>divalent ion</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.001759180077052057</v>
+        <v>0.003743196997135225</v>
       </c>
     </row>
     <row r="385">
@@ -5430,11 +5430,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>second ionization energy m2</t>
+          <t>ionic radius</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.001659067035942382</v>
+        <v>0.002557266653758068</v>
       </c>
     </row>
     <row r="386">
@@ -5443,11 +5443,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>second ionization energy x1</t>
+          <t>polarization</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.001333252671731248</v>
+        <v>0.001025300702603583</v>
       </c>
     </row>
     <row r="387">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>second ionization energy x2</t>
+          <t>cation radius</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.001336842032713455</v>
+        <v>0.001118043478983343</v>
       </c>
     </row>
     <row r="388">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>atomic masses</t>
+          <t>oxygen radius</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.0003964680209189253</v>
+        <v>0.001281876587742362</v>
       </c>
     </row>
     <row r="389">
@@ -5482,11 +5482,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>mass m1</t>
+          <t>valence state</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.001394882947702282</v>
+        <v>0.002091751883056942</v>
       </c>
     </row>
     <row r="390">
@@ -5495,11 +5495,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>mass m2</t>
+          <t>atomic masses</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.001194656865482932</v>
+        <v>0.0004004944100900934</v>
       </c>
     </row>
     <row r="391">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>mass x1</t>
+          <t>mass m1</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.000543028137060664</v>
+        <v>0.001409120708576814</v>
       </c>
     </row>
     <row r="392">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>mass x2</t>
+          <t>mass m2</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.000550206859025077</v>
+        <v>0.001207148263844719</v>
       </c>
     </row>
     <row r="393">
@@ -5534,11 +5534,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>effective meant mass m</t>
+          <t>mass x1</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.001335040995856011</v>
+        <v>0.0005487511153628229</v>
       </c>
     </row>
     <row r="394">
@@ -5547,11 +5547,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>effective mean mass x</t>
+          <t>mass x2</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.002262569751525605</v>
+        <v>0.0005559903700786559</v>
       </c>
     </row>
     <row r="395">
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>electronegativity m1</t>
+          <t>effective meant mass m</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.000983284267154163</v>
+        <v>0.0013491025068469</v>
       </c>
     </row>
     <row r="396">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>electronegativity m2</t>
+          <t>effective mean mass x</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.0007830581849348131</v>
+        <v>0.002288088751790325</v>
       </c>
     </row>
     <row r="397">
@@ -5586,11 +5586,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>electronegativity x1</t>
+          <t>polarizability</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.0001314294565125448</v>
+        <v>8.049110371558767e-05</v>
       </c>
     </row>
     <row r="398">
@@ -5599,11 +5599,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>electronegativity x2</t>
+          <t>polarizability m1</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.0001386081784769577</v>
+        <v>0.0009235423452044726</v>
       </c>
     </row>
     <row r="399">
@@ -5612,11 +5612,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity m</t>
+          <t>polarizability m2</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.001132852511247214</v>
+        <v>0.0007215699004723781</v>
       </c>
     </row>
     <row r="400">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity x</t>
+          <t>polarizability x1</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.001797664173872389</v>
+        <v>6.317275199048159e-05</v>
       </c>
     </row>
     <row r="401">
@@ -5638,11 +5638,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>polarizability x2</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.001040676064422956</v>
+        <v>7.041200670631471e-05</v>
       </c>
     </row>
     <row r="402">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>effective mean element polarizability m</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.0008928454908147951</v>
+        <v>0.001116936479673876</v>
       </c>
     </row>
     <row r="403">
@@ -5664,11 +5664,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>magnetic</t>
+          <t>effective mean element polarizability x</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.0008683007218835312</v>
+        <v>0.001790100865232432</v>
       </c>
     </row>
     <row r="404">
@@ -5677,11 +5677,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>valences</t>
+          <t>average radius</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>6.617219711922763e-05</v>
+        <v>0.0007941452121698997</v>
       </c>
     </row>
     <row r="405">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ion radii</t>
+          <t>valence states</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.003700738300128407</v>
+        <v>0.0007328544354418613</v>
       </c>
     </row>
     <row r="406">
@@ -5703,11 +5703,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ion radius</t>
+          <t>rb concentration</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.003818550611341814</v>
+        <v>0.001566024920593437</v>
       </c>
     </row>
     <row r="407">
@@ -5716,11 +5716,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ionic size</t>
+          <t>vanadium content</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.003361939639855472</v>
+        <v>0.001253991536790204</v>
       </c>
     </row>
     <row r="408">
@@ -5729,11 +5729,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>active mass</t>
+          <t>ionization energy</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.001261351367187118</v>
+        <v>0.002206886640034452</v>
       </c>
     </row>
     <row r="409">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>cation size</t>
+          <t>first ionization energy m1</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.001939033348236884</v>
+        <v>0.001984772337180431</v>
       </c>
     </row>
     <row r="410">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ionic radii</t>
+          <t>first ionization energy m2</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.002411580768177718</v>
+        <v>0.001883786114814384</v>
       </c>
     </row>
     <row r="411">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>cation sizes</t>
+          <t>first ionization energy x1</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.001024846117990569</v>
+        <v>0.001554587540573435</v>
       </c>
     </row>
     <row r="412">
@@ -5781,11 +5781,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>divalent ion</t>
+          <t>first ionization energy x2</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.003704182839446872</v>
+        <v>0.001558207167931352</v>
       </c>
     </row>
     <row r="413">
@@ -5794,11 +5794,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ionic radius</t>
+          <t>second ionization energy m1</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.002529393079391126</v>
+        <v>0.001777650911956286</v>
       </c>
     </row>
     <row r="414">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>polarization</t>
+          <t>second ionization energy m2</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.001015192658683897</v>
+        <v>0.001676664689590239</v>
       </c>
     </row>
     <row r="415">
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>cation radius</t>
+          <t>second ionization energy x1</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.001106486787772538</v>
+        <v>0.001347466115349291</v>
       </c>
     </row>
     <row r="416">
@@ -5833,11 +5833,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>oxygen radius</t>
+          <t>second ionization energy x2</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.001268816773710813</v>
+        <v>0.001351085742707207</v>
       </c>
     </row>
     <row r="417">
@@ -5846,11 +5846,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>valence state</t>
+          <t>divalent ion size</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.002069965495943947</v>
+        <v>0.003287176726766543</v>
       </c>
     </row>
     <row r="418">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>average radius</t>
+          <t>mobile ion radius</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.0007858072035673248</v>
+        <v>0.002808092405515339</v>
       </c>
     </row>
     <row r="419">
@@ -5872,11 +5872,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>valence states</t>
+          <t>anion radius ratio</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.0007257417161562008</v>
+        <v>0.0009076788752423989</v>
       </c>
     </row>
     <row r="420">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>rb concentration</t>
+          <t>w ion concentration</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.001549630935881263</v>
+        <v>0.003498772835597832</v>
       </c>
     </row>
     <row r="421">
@@ -5898,11 +5898,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>vanadium content</t>
+          <t>pentavalent vanadium</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.00124070985412214</v>
+        <v>0.000460074792906716</v>
       </c>
     </row>
     <row r="422">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>divalent ion size</t>
+          <t>high molecular weight</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.003252573269286625</v>
+        <v>0.002529209235000184</v>
       </c>
     </row>
     <row r="423">
@@ -5924,11 +5924,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>mobile ion radius</t>
+          <t>polarizability cations</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.002778873094797835</v>
+        <v>0.001033656324808114</v>
       </c>
     </row>
     <row r="424">
@@ -5937,11 +5937,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>anion radius ratio</t>
+          <t>effective ionic radius</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.0008981965382503773</v>
+        <v>0.001997263107930333</v>
       </c>
     </row>
     <row r="425">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>w ion concentration</t>
+          <t>oxidation state cation</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.003461947953279114</v>
+        <v>0.002052251108041967</v>
       </c>
     </row>
     <row r="426">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>pentavalent vanadium</t>
+          <t>octahedral cation radius</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.0004556082719916714</v>
+        <v>0.001013851674521775</v>
       </c>
     </row>
     <row r="427">
@@ -5976,11 +5976,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>high molecular weight</t>
+          <t>vanadium oxidation state</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.002502337599008131</v>
+        <v>0.001774873108242038</v>
       </c>
     </row>
     <row r="428">
@@ -5989,11 +5989,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>polarizability cations</t>
+          <t>pauling electronegativity</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.001022333070414614</v>
+        <v>0.0001224941499914663</v>
       </c>
     </row>
     <row r="429">
@@ -6002,11 +6002,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>effective ionic radius</t>
+          <t>extrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.001975505387340863</v>
+        <v>0.0004452776338482996</v>
       </c>
     </row>
     <row r="430">
@@ -6015,11 +6015,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>oxidation state cation</t>
+          <t>occupancy</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.002030656067198374</v>
+        <v>0.000499903280541471</v>
       </c>
     </row>
     <row r="431">
@@ -6028,11 +6028,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>octahedral cation radius</t>
+          <t>occupancy element m1</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.001003333434780202</v>
+        <v>0.001011934304326789</v>
       </c>
     </row>
     <row r="432">
@@ -6041,11 +6041,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>vanadium oxidation state</t>
+          <t>occupancy element m2</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.001756316292765009</v>
+        <v>0.0008772860078387263</v>
       </c>
     </row>
     <row r="433">
@@ -6054,11 +6054,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>pauling electronegativity</t>
+          <t>occupancy element x1</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.0001213199760901971</v>
+        <v>0.000438354575517462</v>
       </c>
     </row>
     <row r="434">
@@ -6067,11 +6067,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>extrinsic-atomic parameter</t>
+          <t>occupancy element x2</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.0004400344612871029</v>
+        <v>0.0004431807453280174</v>
       </c>
     </row>
     <row r="435">
@@ -6080,11 +6080,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>occupancy</t>
+          <t>occupancy na+ wyckoff 6b site</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.0004949888399744043</v>
+        <v>0.0006279912520715766</v>
       </c>
     </row>
     <row r="436">
@@ -6093,11 +6093,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>occupancy element m1</t>
+          <t>occupancy na+ wyckoff 18e site</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.001001772631770592</v>
+        <v>0.0006025846170113657</v>
       </c>
     </row>
     <row r="437">
@@ -6106,11 +6106,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>occupancy element m2</t>
+          <t>occupancy na+ wyckoff 36f site</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.000868288576957692</v>
+        <v>0.0005788912446163451</v>
       </c>
     </row>
     <row r="438">
@@ -6119,11 +6119,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>occupancy element x1</t>
+          <t>stoichiometric occupancy d2 dopant position</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.0004338694246761797</v>
+        <v>0.0004865181340529435</v>
       </c>
     </row>
     <row r="439">
@@ -6132,11 +6132,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>occupancy element x2</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.0004386552393191217</v>
+        <v>0.002647350397223676</v>
       </c>
     </row>
     <row r="440">
@@ -6145,11 +6145,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 6b site</t>
+          <t>na content</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.0006216513750087131</v>
+        <v>0.004630013386995165</v>
       </c>
     </row>
     <row r="441">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 18e site</t>
+          <t>na+ concentration</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.000596482323125079</v>
+        <v>0.001323675198611838</v>
       </c>
     </row>
     <row r="442">
@@ -6171,11 +6171,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 36f site</t>
+          <t>stoichiometric species m according formula</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.0005730555644109176</v>
+        <v>0.001525228491835146</v>
       </c>
     </row>
     <row r="443">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>stoichiometric occupancy d2 dopant position</t>
+          <t>stoichiometric species na according formula</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.0004814720703615617</v>
+        <v>0.002326935809610596</v>
       </c>
     </row>
     <row r="444">
@@ -6197,11 +6197,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>concentration</t>
+          <t>stoichiometric species po4 according formula</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.00261928752519947</v>
+        <v>0.003588638999356833</v>
       </c>
     </row>
     <row r="445">
@@ -6210,11 +6210,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>na content</t>
+          <t>fe doped</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.004580174355463935</v>
+        <v>0.001930397326031351</v>
       </c>
     </row>
     <row r="446">
@@ -6223,11 +6223,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>na+ concentration</t>
+          <t>m ratios</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.001309643762599735</v>
+        <v>0.001969180310948291</v>
       </c>
     </row>
     <row r="447">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>stoichiometric species m according formula</t>
+          <t>al doping</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.001509050390119053</v>
+        <v>0.002576633506943761</v>
       </c>
     </row>
     <row r="448">
@@ -6249,11 +6249,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>stoichiometric species na according formula</t>
+          <t>m vacancy</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.002301887245001505</v>
+        <v>0.001950631323905308</v>
       </c>
     </row>
     <row r="449">
@@ -6262,11 +6262,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>stoichiometric species po4 according formula</t>
+          <t>mn doping</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.003551821240428096</v>
+        <v>0.001305602809316603</v>
       </c>
     </row>
     <row r="450">
@@ -6275,11 +6275,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>vacancy occupation</t>
+          <t>al content</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.0004234119355987502</v>
+        <v>0.002694562697440392</v>
       </c>
     </row>
     <row r="451">
@@ -6288,11 +6288,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>occupancy na 6b</t>
+          <t>content</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.002748302841169268</v>
+        <v>0.00179541314579688</v>
       </c>
     </row>
     <row r="452">
@@ -6301,11 +6301,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>occupancy na 18e</t>
+          <t>vacancy</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.002706354421363211</v>
+        <v>0.0004451856084944197</v>
       </c>
     </row>
     <row r="453">
@@ -6314,11 +6314,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>occupancy na 36f</t>
+          <t>na vacancy</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.002667309823506275</v>
+        <v>0.003954899618343935</v>
       </c>
     </row>
     <row r="454">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>occupancy m1</t>
+          <t>nb content</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.001122039335478006</v>
+        <v>0.001297480894336897</v>
       </c>
     </row>
     <row r="455">
@@ -6340,11 +6340,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>occupancy m2</t>
+          <t>ni content</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.0009218132532586564</v>
+        <v>0.00134126407652865</v>
       </c>
     </row>
     <row r="456">
@@ -6353,11 +6353,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>occupancy x1</t>
+          <t>ion content</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.0002701845248363882</v>
+        <v>0.00441085651291393</v>
       </c>
     </row>
     <row r="457">
@@ -6366,11 +6366,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>occupancy x2</t>
+          <t>m vacancies</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.0002773632468008011</v>
+        <v>0.001999471676195771</v>
       </c>
     </row>
     <row r="458">
@@ -6379,11 +6379,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>vacancy m</t>
+          <t>anion doping</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.001930702367999753</v>
+        <v>0.001019172217848718</v>
       </c>
     </row>
     <row r="459">
@@ -6392,11 +6392,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>vacancy x</t>
+          <t>na vacancies</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.003592731524562691</v>
+        <v>0.004003739970634398</v>
       </c>
     </row>
     <row r="460">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>vacancy 6b</t>
+          <t>cation doping</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.0004031321000814547</v>
+        <v>0.001552129345993466</v>
       </c>
     </row>
     <row r="461">
@@ -6418,11 +6418,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>vacancy 18e</t>
+          <t>per volume</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.0003402094703723696</v>
+        <v>0.001135556567228025</v>
       </c>
     </row>
     <row r="462">
@@ -6431,11 +6431,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>vacancy 36f</t>
+          <t>gallium doping</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.0002816425735869658</v>
+        <v>0.0008699401628875037</v>
       </c>
     </row>
     <row r="463">
@@ -6444,11 +6444,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>fe doped</t>
+          <t>sodium content</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.001909986551803696</v>
+        <v>0.003345510253731979</v>
       </c>
     </row>
     <row r="464">
@@ -6457,11 +6457,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>m ratios</t>
+          <t>anion vacancies</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.001948646234000136</v>
+        <v>0.0005108279919845825</v>
       </c>
     </row>
     <row r="465">
@@ -6470,11 +6470,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>al doping</t>
+          <t>sodium contents</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.002549398652070899</v>
+        <v>0.002692252774440042</v>
       </c>
     </row>
     <row r="466">
@@ -6483,11 +6483,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>m vacancy</t>
+          <t>ag concentration</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.001930702367999753</v>
+        <v>0.001792557247935155</v>
       </c>
     </row>
     <row r="467">
@@ -6496,11 +6496,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>mn doping</t>
+          <t>chromium content</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.001291785735938669</v>
+        <v>0.001075737543426714</v>
       </c>
     </row>
     <row r="468">
@@ -6509,11 +6509,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>al content</t>
+          <t>na concentration</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.002665907208172568</v>
+        <v>0.005055982012708562</v>
       </c>
     </row>
     <row r="469">
@@ -6522,11 +6522,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>na ions per unit</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.001775726464036741</v>
+        <v>0.003541052309478466</v>
       </c>
     </row>
     <row r="470">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>vacancy</t>
+          <t>oxygen vacancies</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.0004409667635206372</v>
+        <v>0.001207618228888348</v>
       </c>
     </row>
     <row r="471">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>na vacancy</t>
+          <t>zirconium doping</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.003912794505205883</v>
+        <v>0.001317302823069183</v>
       </c>
     </row>
     <row r="472">
@@ -6561,11 +6561,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>nb content</t>
+          <t>anion occupancies</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.001283754358474976</v>
+        <v>0.0003456259222437335</v>
       </c>
     </row>
     <row r="473">
@@ -6574,11 +6574,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ni content</t>
+          <t>germanium content</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.001326764079158976</v>
+        <v>0.001036973104724526</v>
       </c>
     </row>
     <row r="474">
@@ -6587,11 +6587,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ion content</t>
+          <t>ion concentration</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.004364283339341463</v>
+        <v>0.004836825138627328</v>
       </c>
     </row>
     <row r="475">
@@ -6600,11 +6600,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>m vacancies</t>
+          <t>m occupancy ratio</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.001978782481290775</v>
+        <v>0.001836281414635891</v>
       </c>
     </row>
     <row r="476">
@@ -6613,11 +6613,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>anion doping</t>
+          <t>occupation factor</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.001008271360894684</v>
+        <v>0.0006017576073502953</v>
       </c>
     </row>
     <row r="477">
@@ -6626,11 +6626,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>na vacancies</t>
+          <t>zirconium content</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.003960874618496904</v>
+        <v>0.001435232013565814</v>
       </c>
     </row>
     <row r="478">
@@ -6639,11 +6639,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>cation doping</t>
+          <t>high concentration</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.001535710959670518</v>
+        <v>0.00443046317702521</v>
       </c>
     </row>
     <row r="479">
@@ -6652,11 +6652,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>per volume</t>
+          <t>occupation factors</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.001123230174416965</v>
+        <v>0.0006123137544839</v>
       </c>
     </row>
     <row r="480">
@@ -6665,11 +6665,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>gallium doping</t>
+          <t>vacancy occupation</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.0008606283682882069</v>
+        <v>0.0004274677064248766</v>
       </c>
     </row>
     <row r="481">
@@ -6678,11 +6678,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>sodium content</t>
+          <t>occupancy na 6b</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.003309391332103986</v>
+        <v>0.002777876929346112</v>
       </c>
     </row>
     <row r="482">
@@ -6691,11 +6691,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>anion vacancies</t>
+          <t>occupancy na 18e</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.0005054801800293229</v>
+        <v>0.002735532537579093</v>
       </c>
     </row>
     <row r="483">
@@ -6704,11 +6704,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>sodium contents</t>
+          <t>occupancy na 36f</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.002663496387259708</v>
+        <v>0.002696043583587393</v>
       </c>
     </row>
     <row r="484">
@@ -6717,11 +6717,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ag concentration</t>
+          <t>occupancy m1</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.001773831241679202</v>
+        <v>0.001133248433617414</v>
       </c>
     </row>
     <row r="485">
@@ -6730,11 +6730,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>chromium content</t>
+          <t>occupancy m2</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.001063787616530931</v>
+        <v>0.0009312759888853198</v>
       </c>
     </row>
     <row r="486">
@@ -6743,11 +6743,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>na concentration</t>
+          <t>occupancy x1</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.005001954886045299</v>
+        <v>0.0002728788404034233</v>
       </c>
     </row>
     <row r="487">
@@ -6756,11 +6756,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>na ions per unit</t>
+          <t>occupancy x2</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.003503372590463899</v>
+        <v>0.0002801180951192564</v>
       </c>
     </row>
     <row r="488">
@@ -6769,11 +6769,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>oxygen vacancies</t>
+          <t>vacancy m</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.001195249764743432</v>
+        <v>0.001950631323905308</v>
       </c>
     </row>
     <row r="489">
@@ -6782,11 +6782,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>zirconium doping</t>
+          <t>vacancy x</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.00130291339479678</v>
+        <v>0.003633542287801698</v>
       </c>
     </row>
     <row r="490">
@@ -6795,11 +6795,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>anion occupancies</t>
+          <t>vacancy 6b</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.000341930604624565</v>
+        <v>0.0004071497438989173</v>
       </c>
     </row>
     <row r="491">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>germanium content</t>
+          <t>vacancy 18e</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.001025513132862524</v>
+        <v>0.00034363315624839</v>
       </c>
     </row>
     <row r="492">
@@ -6821,11 +6821,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ion concentration</t>
+          <t>vacancy 36f</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.004786063869922827</v>
+        <v>0.0002843997252608385</v>
       </c>
     </row>
     <row r="493">
@@ -6834,11 +6834,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>m occupancy ratio</t>
+          <t>high sodium content</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.001817307349736999</v>
+        <v>0.004301532154763569</v>
       </c>
     </row>
     <row r="494">
@@ -6847,11 +6847,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>occupation factor</t>
+          <t>lithium ion content</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.000595700701369057</v>
+        <v>0.004919919657425501</v>
       </c>
     </row>
     <row r="495">
@@ -6860,11 +6860,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>zirconium content</t>
+          <t>na per formula unit</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.00141942195089845</v>
+        <v>0.002805680136684891</v>
       </c>
     </row>
     <row r="496">
@@ -6873,11 +6873,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>high concentration</t>
+          <t>sodium concentration</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.004383265999823162</v>
+        <v>0.003771478879445377</v>
       </c>
     </row>
     <row r="497">
@@ -6886,11 +6886,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>occupation factors</t>
+          <t>lithium concentration</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.0006061067184282773</v>
+        <v>0.00429269817183616</v>
       </c>
     </row>
     <row r="498">
@@ -6899,11 +6899,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>high sodium content</t>
+          <t>lithium ion contentas</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.004255342379551609</v>
+        <v>0.004325559738056418</v>
       </c>
     </row>
     <row r="499">
@@ -6912,11 +6912,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>lithium ion content</t>
+          <t>carrier concentration</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.004868108103241443</v>
+        <v>0.001541158597898269</v>
       </c>
     </row>
     <row r="500">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>na per formula unit</t>
+          <t>ion per formula unit</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.002775665378067457</v>
+        <v>0.002696101699644274</v>
       </c>
     </row>
     <row r="501">
@@ -6938,11 +6938,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>sodium concentration</t>
+          <t>sodium per formula unit</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.00373117186268535</v>
+        <v>0.002163428570053298</v>
       </c>
     </row>
     <row r="502">
@@ -6951,11 +6951,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>lithium concentration</t>
+          <t>lithium ion concentration</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0.004247522578120436</v>
+        <v>0.005203898741234433</v>
       </c>
     </row>
     <row r="503">
@@ -6964,11 +6964,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>lithium ion contentas</t>
+          <t>structural site occupancy</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.004280272718540129</v>
+        <v>0.001594805792686135</v>
       </c>
     </row>
     <row r="504">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>carrier concentration</t>
+          <t>lithium ions concentration</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0.001524798462479372</v>
+        <v>0.004215217572664704</v>
       </c>
     </row>
     <row r="505">
@@ -6990,11 +6990,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ion per formula unit</t>
+          <t>tetrahedral site occupancy</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0.002667719870006222</v>
+        <v>0.00107981995860554</v>
       </c>
     </row>
     <row r="506">
@@ -7003,11 +7003,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>sodium per formula unit</t>
+          <t>charge carrier concentration</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0.002140273866387483</v>
+        <v>0.002024285880445949</v>
       </c>
     </row>
     <row r="507">
@@ -7016,11 +7016,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>lithium ion concentration</t>
+          <t>lithium charge carrier concentration</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0.005149295123629018</v>
+        <v>0.003002725896946623</v>
       </c>
     </row>
     <row r="508">
@@ -7029,11 +7029,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>structural site occupancy</t>
+          <t>overall parameter</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0.001578588076616519</v>
+        <v>0.0007919340745660209</v>
       </c>
     </row>
     <row r="509">
@@ -7042,11 +7042,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>lithium ions concentration</t>
+          <t>formation energies</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0.004170860591849719</v>
+        <v>0.0015342194453379</v>
       </c>
     </row>
     <row r="510">
@@ -7055,11 +7055,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>tetrahedral site occupancy</t>
+          <t>formation energies materials</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>0.00106887338482338</v>
+        <v>0.002541762384356933</v>
       </c>
     </row>
     <row r="511">
@@ -7068,11 +7068,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>charge carrier concentration</t>
+          <t>vacancy formation energy</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0.002002749469441544</v>
+        <v>0.002324803325274218</v>
       </c>
     </row>
     <row r="512">
@@ -7081,11 +7081,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>lithium charge carrier concentration</t>
+          <t>entropy migration</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0.002971001509841508</v>
+        <v>0.0007057487427151468</v>
       </c>
     </row>
     <row r="513">
@@ -7094,76 +7094,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>overall parameter</t>
+          <t>energy landscaps</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0.0007829683945877992</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>formation energies</t>
-        </is>
-      </c>
-      <c r="C514" t="n">
-        <v>0.001516563385984835</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>formation energies materials</t>
-        </is>
-      </c>
-      <c r="C515" t="n">
-        <v>0.002513573111785512</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>vacancy formation energy</t>
-        </is>
-      </c>
-      <c r="C516" t="n">
-        <v>0.00229968164949164</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>entropy migration</t>
-        </is>
-      </c>
-      <c r="C517" t="n">
-        <v>0.0006987433857602938</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>energy landscaps</t>
-        </is>
-      </c>
-      <c r="C518" t="n">
-        <v>0.002147168349400244</v>
+        <v>0.002169750025846758</v>
       </c>
     </row>
   </sheetData>

--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0009812254059306793</v>
+        <v>0.0009857300746154275</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002297619599249894</v>
+        <v>0.002308167649673015</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001843173048464934</v>
+        <v>0.001851634798295103</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0005066085021367894</v>
+        <v>0.0005089342709572963</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.002004624618464864</v>
+        <v>0.0020138275698855</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.004074397091965208</v>
+        <v>0.004093102079502701</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003239660312539337</v>
+        <v>0.003254533140200455</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.002998785252857295</v>
+        <v>0.003012552256788485</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001358885285832382</v>
+        <v>0.0004424101236758077</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>average atomic volume</t>
+          <t>bottleneck</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001008402151650658</v>
+        <v>0.0004547220583226896</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>volume mo6 polyhedron</t>
+          <t>minimum bt2 and bt1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0006465011045720706</v>
+        <v>0.01197324988552426</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>volume xo4 polyhedron</t>
+          <t>average straight-line path width</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0006344832096084525</v>
+        <v>0.0004408506866665528</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>volume na1o6 polyhedron</t>
+          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.001445496167104675</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>volume na2o8 polyhedron</t>
+          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.001431316570787742</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>volume na3o5 polyhedron</t>
+          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0004846622619859742</v>
+        <v>0.002706852462183019</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>bt1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0004403883622613398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bottleneck</t>
+          <t>bt2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0004526440328376809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>minimum bt2 and bt1</t>
+          <t>min_bt</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01191853356388314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>average straight-line path width</t>
+          <t>conduction threshold</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004388360516929255</v>
+        <v>0.0009097359817060786</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
+          <t>volume diffusion pathways</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001438890422301342</v>
+        <v>0.001329158589547953</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
+          <t>dimensionality diffusion pathways</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001424775625045669</v>
+        <v>0.0008948576992959364</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002694482469793991</v>
+        <v>0.0006911115692283497</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bt1</t>
+          <t>average shortest li-li separation distance</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bt2</t>
+          <t>average shortest li-anion separation distance</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>min_bt</t>
+          <t>average shortest anion-anion separation distance</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0004166309168426576</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>conduction threshold</t>
+          <t>jump distance</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0009055785969476001</v>
+        <v>0.0004627799706183354</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>volume diffusion pathways</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001323084493576258</v>
+        <v>0.0007219496244341089</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dimensionality diffusion pathways</t>
+          <t>average neighbor count</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0008907683065106986</v>
+        <v>0.0003351526163890713</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>average li-li bonds per</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0006879532719178159</v>
+        <v>0.0005946159880455006</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>average shortest li-li separation distance</t>
+          <t>anion framework coordination</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.001133291711701337</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>average shortest li-anion separation distance</t>
+          <t>average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.0003039137352993998</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>average shortest anion-anion separation distance</t>
+          <t>standard deviation neighbor count</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004147269633238088</v>
+        <v>0.0002772388563961365</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jump distance</t>
+          <t>ratio average neighbor count average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0004606651214367413</v>
+        <v>0.0004726382119542091</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.000718650400895228</v>
+        <v>0.0004662520022254771</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>average neighbor count</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0003336210089698209</v>
+        <v>0.000530063406420791</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>average li-li bonds per</t>
+          <t>polyhedron</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0005918986640135193</v>
+        <v>9.553809781950385e-05</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>anion framework coordination</t>
+          <t>o octahedra</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001128112703962959</v>
+        <v>0.002166935690605725</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>average sublattice neighbor count</t>
+          <t>ions channel</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.000302524885834903</v>
+        <v>0.002260653283738477</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>standard deviation neighbor count</t>
+          <t>ion pathways</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0002759719079416214</v>
+        <v>0.003794310023538871</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ratio average neighbor count average sublattice neighbor count</t>
+          <t>vo polyhedron</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0004704783117873849</v>
+        <v>7.816994658251535e-05</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>channel radius</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0004641212862742105</v>
+        <v>0.0005684835986566309</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>diffusion area</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0005276410799753224</v>
+        <v>0.001676153040201592</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>polyhedron</t>
+          <t>diffusion path</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9.510150012553998e-05</v>
+        <v>0.00125807137929855</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>o octahedra</t>
+          <t>ionic pathways</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002157033053363838</v>
+        <v>0.002486759873907118</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ions channel</t>
+          <t>migration path</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.002250322368291565</v>
+        <v>0.0007787912804611781</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ion pathways</t>
+          <t>migration paths</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.003776970480003152</v>
+        <v>0.0007036652214433035</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vo polyhedron</t>
+          <t>anion distances</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7.781271926488878e-05</v>
+        <v>0.0006004016812429595</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>channel radius</t>
+          <t>bottleneck area</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000565885696522357</v>
+        <v>0.000857369757369981</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>diffusion area</t>
+          <t>bottleneck size</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001668493221042693</v>
+        <v>0.001420381081294884</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>diffusion path</t>
+          <t>channel section</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.001252322143385549</v>
+        <v>0.0005337039477705092</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ionic pathways</t>
+          <t>lithium pathway</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.002475395678354042</v>
+        <v>0.003215779343802573</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>migration path</t>
+          <t>na coordination</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0007752322973446112</v>
+        <v>0.004110416125202327</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>migration paths</t>
+          <t>al coordinations</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0007004495554418185</v>
+        <v>0.001811590788204502</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>anion distances</t>
+          <t>bottleneck width</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0005976579172842302</v>
+        <v>0.0004466228501727662</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bottleneck area</t>
+          <t>diffusion length</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0008534516800009999</v>
+        <v>0.001275047161613984</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bottleneck size</t>
+          <t>mobility pathway</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00141389010943343</v>
+        <v>0.0007987545138137746</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>channel section</t>
+          <t>coordinated anion</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0005312649844859748</v>
+        <v>0.000460662872352205</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lithium pathway</t>
+          <t>diffusion channel</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.003201083616361428</v>
+        <v>0.00126734937383086</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>na coordination</t>
+          <t>diffusion pathway</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.004091632014544339</v>
+        <v>0.001279270313105694</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>al coordinations</t>
+          <t>ionic coordinates</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.001803312034716752</v>
+        <v>0.002405739433481142</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bottleneck width</t>
+          <t>m bottleneck site</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0004445818371014636</v>
+        <v>0.002020290043919076</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>diffusion length</t>
+          <t>migration channel</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.001269220348403745</v>
+        <v>0.0007880692749934876</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mobility pathway</t>
+          <t>polyhedron volume</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0007951043011056131</v>
+        <v>0.0007303309180283305</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>coordinated anion</t>
+          <t>polyhedral mo6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0004585576980567766</v>
+        <v>0.0003395085401516958</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>diffusion channel</t>
+          <t>polyhedral xo4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001261557738591204</v>
+        <v>0.0003213989389923606</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>diffusion pathway</t>
+          <t>polyhedral na1o6</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001273424200597639</v>
+        <v>9.563580701538489e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ionic coordinates</t>
+          <t>polyhedral na2o8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.002394745491662034</v>
+        <v>9.563580701538489e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>m bottleneck site</t>
+          <t>polyhedral na3o5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.002011057559764119</v>
+        <v>9.563580701538489e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>migration channel</t>
+          <t>mean jump distance</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0007844678925502661</v>
+        <v>0.0004429852015150521</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>polyhedron volume</t>
+          <t>atomic coordinates</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0007269933929789612</v>
+        <v>0.000570484286114187</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>polyhedral mo6</t>
+          <t>diffusion distance</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0003379570266812128</v>
+        <v>0.00139170009660713</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>polyhedral xo4</t>
+          <t>migration channels</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0003199301842357858</v>
+        <v>0.0009618381228685643</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>polyhedral na1o6</t>
+          <t>conducting pathway</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001141548573057811</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>polyhedral na2o8</t>
+          <t>diffusion channels</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001441118221705936</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>polyhedral na3o5</t>
+          <t>diffusion pathways</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.519876280206825e-05</v>
+        <v>0.001311176015203351</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>mean jump distance</t>
+          <t>bottleneck geometry</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0004409608120635582</v>
+        <v>0.0003998977319705684</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>atomic coordinates</t>
+          <t>conduction pathways</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.000567877241077236</v>
+        <v>0.001099513962226437</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>diffusion distance</t>
+          <t>transport pathway</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.001385340193419442</v>
+        <v>0.0009252220766417165</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>migration channels</t>
+          <t>na diffusion channels</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0009574426375491441</v>
+        <v>0.003460373023127473</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>conducting pathway</t>
+          <t>bottleneck m positions</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.001136331832449406</v>
+        <v>0.00170444828238757</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>diffusion channels</t>
+          <t>ion conduction pathway</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.001434532483590082</v>
+        <v>0.00306459105363817</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>diffusion pathways</t>
+          <t>coordination polyhedron</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001305184097448195</v>
+        <v>0.0004087438611268063</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bottleneck geometry</t>
+          <t>migration coordinate</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0003980702471076232</v>
+        <v>0.000662910466690502</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>conduction pathways</t>
+          <t>zr + ion conducting pathway</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001094489314768037</v>
+        <v>0.00219869388508842</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>transport pathway</t>
+          <t>sodium oxygen interatomic distance</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0009209939222793657</v>
+        <v>0.001923134926985153</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>na diffusion channels</t>
+          <t>dimensional atomic migration channels</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.003444559531791205</v>
+        <v>0.0009104245416282061</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bottleneck m positions</t>
+          <t>general structure</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.001696659157352058</v>
+        <v>0.003112969082825377</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ion conduction pathway</t>
+          <t>lattice parameters</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.003050586238621981</v>
+        <v>0.002160540600263659</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>coordination polyhedron</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.000406875950510384</v>
+        <v>0.03073317278070994</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>migration coordinate</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0006598810450496359</v>
+        <v>0.0124906224377215</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zr + ion conducting pathway</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.002188646116691611</v>
+        <v>0.004899679451037271</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sodium oxygen interatomic distance</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.001914346430108343</v>
+        <v>0.004391082981582329</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dimensional atomic migration channels</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0009062640102331395</v>
+        <v>0.001788768299225577</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>general structure</t>
+          <t>a/c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003098743185995088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lattice parameters</t>
+          <t>lattice parameter a</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.002150667187820672</v>
+        <v>0.01125334138070249</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>lattice parameter c</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0305927258525159</v>
+        <v>0.005172491266373013</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>lattice parameter v</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.01243354178532265</v>
+        <v>0.002642176937478271</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>packing fraction sublattice</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.00487728850126636</v>
+        <v>0.0003011674242888297</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>packing fraction full crystal</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.004371016256919411</v>
+        <v>0.001054815187755618</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>structure disorder</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.001780593841786064</v>
+        <v>0.002900644055285885</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>a/c</t>
+          <t>configurational entropy na+</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.0001065012513025654</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lattice parameter a</t>
+          <t>configurational entropy na+ 6b site</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.01120191495492746</v>
+        <v>0.0005649033701903714</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>lattice parameter c</t>
+          <t>configurational entropy na+ 18e site</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.005148853599196372</v>
+        <v>0.0005393800968198916</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lattice parameter v</t>
+          <t>configurational entropy na+ 36f site</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.002630102504510944</v>
+        <v>0.0005155779514640215</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>packing fraction sublattice</t>
+          <t>configurational entropy cationic m site</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0002997911251375743</v>
+        <v>0.001260845620802659</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>packing fraction full crystal</t>
+          <t>configurational entropy cationic x site</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001049994808356792</v>
+        <v>0.001937100409961637</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>structure disorder</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.002887388458466902</v>
+        <v>2.460658295174684e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>configurational entropy na+</t>
+          <t>lattice distortion</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0001060145533068526</v>
+        <v>0.001323463838498493</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 6b site</t>
+          <t>configurate entropy</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0005623218292724907</v>
+        <v>0.0001421245233891093</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 18e site</t>
+          <t>configuration entropy na 6b</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0005369151942122797</v>
+        <v>0.002136070768422065</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 36f site</t>
+          <t>configuration entropy na 18e</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0005132218218172592</v>
+        <v>0.002104166676708965</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>configurational entropy cationic m site</t>
+          <t>configuration entropy na 36f</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.001255083706937398</v>
+        <v>0.002074413995014127</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>configurational entropy cationic x site</t>
+          <t>configuration entropy na all</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.001928248092495954</v>
+        <v>0.002834882149106796</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>configuration entropy m</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2.449413380718295e-06</v>
+        <v>0.001382178474702697</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>lattice distortion</t>
+          <t>configuration entropy x</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.001317415766858794</v>
+        <v>0.00250926978996766</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>configurate entropy</t>
+          <t>c axis</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0001414750312955507</v>
+        <v>0.006756495714937387</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>configuration entropy na 6b</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.002126309180187404</v>
+        <v>0.0002842490467782187</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>configuration entropy na 18e</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.002094550886362141</v>
+        <v>0.0005539660761405747</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>configuration entropy na 36f</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.002064934170868365</v>
+        <v>0.001137238343274639</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>configuration entropy na all</t>
+          <t>expansion</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.002821927076343073</v>
+        <v>0.0009550446629658615</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>configuration entropy m</t>
+          <t>distortion</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.001375862084189649</v>
+        <v>0.000514719998049866</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>configuration entropy x</t>
+          <t>m skeleton</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.002497802726787243</v>
+        <v>0.001911287620335405</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>c axis</t>
+          <t>a / c ratio</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.006725619336657473</v>
+        <v>0.01119594703092507</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>entropy</t>
+          <t>axis length</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0002829500625911014</v>
+        <v>0.0007400873456976665</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>c parameter</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0005514345173499221</v>
+        <v>0.006692633060085959</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>cell volume</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.001132041299901439</v>
+        <v>0.002806169547344896</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>expansion</t>
+          <t>parameter a</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0009506802229466438</v>
+        <v>0.01581390823158018</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>distortion</t>
+          <t>parameter c</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0005123677891477144</v>
+        <v>0.006692633060085959</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>m skeleton</t>
+          <t>ion mobility</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.001902553264234694</v>
+        <v>0.004094906833029511</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>a / c ratio</t>
+          <t>a parameter</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.01114478289047214</v>
+        <v>0.01581390823158018</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>axis length</t>
+          <t>c parameters</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0007367052349393604</v>
+        <v>0.007339747979650847</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>c parameter</t>
+          <t>hopping rate</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.006662048526509623</v>
+        <v>0.001850544391812547</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>cell volume</t>
+          <t>ion dynamics</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.00279334568774119</v>
+        <v>0.003761978171946652</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>parameter a</t>
+          <t>lattice size</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.01574164056010625</v>
+        <v>0.0022591238916071</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>parameter c</t>
+          <t>diffusion</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.006662048526509623</v>
+        <v>0.002092288623985911</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ion mobility</t>
+          <t>na diffusion</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.004076193597983999</v>
+        <v>0.004795585624978228</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>a parameter</t>
+          <t>ion migration</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.01574164056010625</v>
+        <v>0.00409614253348406</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>c parameters</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.007306206208197059</v>
+        <v>0.0003903429714102567</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>hopping rate</t>
+          <t>hopping rates</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001842087625009742</v>
+        <v>0.0007551186026880714</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ion dynamics</t>
+          <t>ion diffusion</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.003744786381110316</v>
+        <v>0.004575422632321431</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>lattice size</t>
+          <t>volume change</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.002248799965299526</v>
+        <v>0.001391599066196724</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>diffusion</t>
+          <t>volume effect</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.002082727114921068</v>
+        <v>0.001461672458645255</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>na diffusion</t>
+          <t>cell parameter</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.004773670371557259</v>
+        <v>0.002570929519451527</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ion migration</t>
+          <t>jump distances</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.004077423651435087</v>
+        <v>0.0004771320035728433</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>lattice strain</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0003885591506616513</v>
+        <v>0.001178628110580388</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hopping rates</t>
+          <t>lattice stress</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0007516678008809671</v>
+        <v>0.001227653432799594</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ion diffusion</t>
+          <t>lattice volume</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.004554513497476024</v>
+        <v>0.001748665708592139</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>volume change</t>
+          <t>lower symmetry</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.001385239624705942</v>
+        <v>0.001491555506497935</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>volume effect</t>
+          <t>migration rate</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001454992790122016</v>
+        <v>0.00214402874513447</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>cell parameter</t>
+          <t>volume changes</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.002559180678673298</v>
+        <v>0.001269240356267941</v>
       </c>
     </row>
     <row r="152">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>jump distances</t>
+          <t>cell parameters</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0004749515673151544</v>
+        <v>0.003218044439016415</v>
       </c>
     </row>
     <row r="153">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>lattice strain</t>
+          <t>ion arrangement</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.001173241920915061</v>
+        <v>0.003669568204636093</v>
       </c>
     </row>
     <row r="154">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>lattice stress</t>
+          <t>packing mode</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.001222043203268337</v>
+        <v>0.0004316428321367195</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>lattice volume</t>
+          <t>packing fraciton</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001740674515201128</v>
+        <v>7.606463371227413e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>lower symmetry</t>
+          <t>ionic diffusion</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.001484739276015867</v>
+        <v>0.003267872482689678</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>migration rate</t>
+          <t>haven ratio</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002134230789896901</v>
+        <v>0.0007884513437901348</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>volume changes</t>
+          <t>jump frequency</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.001263440079464447</v>
+        <v>0.001359420185450435</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>cell parameters</t>
+          <t>attempt frequency</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.003203338360360734</v>
+        <v>0.001343327971767887</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ion arrangement</t>
+          <t>concerted migration</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.003652798716310984</v>
+        <v>0.0006075157805257059</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>packing mode</t>
+          <t>percentage correlated jumps</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.0004296702759583145</v>
+        <v>0.0002144547061339502</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +2531,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>packing fraciton</t>
+          <t>all jump events</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7.571702742296191e-05</v>
+        <v>0.001162642658050381</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ionic diffusion</t>
+          <t>bending strength</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.003252938695826915</v>
+        <v>0.000536880687523946</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>haven ratio</t>
+          <t>cation migration</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0007848482153381551</v>
+        <v>0.001342761936654155</v>
       </c>
     </row>
     <row r="165">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>jump frequency</t>
+          <t>ion hopping rate</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.001353207797600544</v>
+        <v>0.003586548474760682</v>
       </c>
     </row>
     <row r="166">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>attempt frequency</t>
+          <t>lattice constant</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.001337189123412134</v>
+        <v>0.001746033049348201</v>
       </c>
     </row>
     <row r="167">
@@ -2596,11 +2596,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>concerted migration</t>
+          <t>lattice disorder</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0006047395059831115</v>
+        <v>0.001283023206846274</v>
       </c>
     </row>
     <row r="168">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>percentage correlated jumps</t>
+          <t>sodium diffusion</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.0002134746737458794</v>
+        <v>0.003505185517375712</v>
       </c>
     </row>
     <row r="169">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>all jump events</t>
+          <t>sodium migration</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.001157329519993479</v>
+        <v>0.003025905418538341</v>
       </c>
     </row>
     <row r="170">
@@ -2635,11 +2635,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bending strength</t>
+          <t>unit cell volume</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.0005344272069182346</v>
+        <v>0.002449126469476327</v>
       </c>
     </row>
     <row r="171">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>cation migration</t>
+          <t>volume expansion</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.001336625675011253</v>
+        <v>0.001160084200601509</v>
       </c>
     </row>
     <row r="172">
@@ -2661,11 +2661,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ion hopping rate</t>
+          <t>volume variation</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.003570158376683489</v>
+        <v>0.001129405820667312</v>
       </c>
     </row>
     <row r="173">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>lattice constant</t>
+          <t>lattice dynamics</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.001738053886895435</v>
+        <v>0.001298803691091737</v>
       </c>
     </row>
     <row r="174">
@@ -2687,11 +2687,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>lattice disorder</t>
+          <t>lattice softness</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.001277159944062149</v>
+        <v>0.001071398977786126</v>
       </c>
     </row>
     <row r="175">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sodium diffusion</t>
+          <t>lattice symmetry</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.003489167238294073</v>
+        <v>0.00163472301111088</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sodium migration</t>
+          <t>debye frequency</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.003012077392253136</v>
+        <v>0.001390966909281291</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>unit cell volume</t>
+          <t>average phonon band center</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.002437934254085778</v>
+        <v>0.0006176352894036802</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>volume expansion</t>
+          <t>dielectric constant</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.001154782754389513</v>
+        <v>0.00106168734777653</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>volume variation</t>
+          <t>geometry factor</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.001124244570986747</v>
+        <v>0.0005712414410057666</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>lattice dynamics</t>
+          <t>lattice expansion</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001292868313379762</v>
+        <v>0.001543626170956491</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lattice softness</t>
+          <t>anionic framework</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.001066502812447976</v>
+        <v>0.001225489807466955</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>lattice symmetry</t>
+          <t>crystal parameter</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.001627252522235656</v>
+        <v>0.001573759037695774</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>debye frequency</t>
+          <t>hopping frequency</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.001384610356672094</v>
+        <v>0.001515575859279936</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>average phonon band center</t>
+          <t>hopping mechanism</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0006148127699143995</v>
+        <v>0.0009230472999397945</v>
       </c>
     </row>
     <row r="185">
@@ -2830,11 +2830,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dielectric constant</t>
+          <t>lattice constants</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001056835563427363</v>
+        <v>0.00125615864299365</v>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>geometry factor</t>
+          <t>thermal expansion</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0005686309358614114</v>
+        <v>0.00153430714004705</v>
       </c>
     </row>
     <row r="187">
@@ -2856,11 +2856,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>lattice expansion</t>
+          <t>disorder character</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.001536571983758258</v>
+        <v>0.0003747288721481073</v>
       </c>
     </row>
     <row r="188">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>anionic framework</t>
+          <t>dynamic parameters</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.001219889465444999</v>
+        <v>0.001266394755379027</v>
       </c>
     </row>
     <row r="189">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>crystal parameter</t>
+          <t>geometrical factor</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.001566567146896243</v>
+        <v>0.0004690103210791399</v>
       </c>
     </row>
     <row r="190">
@@ -2895,11 +2895,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hopping frequency</t>
+          <t>ion diffusion rate</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.001508649858655148</v>
+        <v>0.004101724776200212</v>
       </c>
     </row>
     <row r="191">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hopping mechanism</t>
+          <t>compressive strain</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.0009188290840471707</v>
+        <v>0.000133496079815996</v>
       </c>
     </row>
     <row r="192">
@@ -2921,11 +2921,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>lattice constants</t>
+          <t>c lattice parameter</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.001250418148057065</v>
+        <v>0.005172491266373013</v>
       </c>
     </row>
     <row r="193">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>thermal expansion</t>
+          <t>geometry parameters</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.001527295539706813</v>
+        <v>0.001266973463599322</v>
       </c>
     </row>
     <row r="194">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>disorder character</t>
+          <t>lattice deformation</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.0003730164059678549</v>
+        <v>0.001141489914139747</v>
       </c>
     </row>
     <row r="195">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>dynamic parameters</t>
+          <t>mechanical strength</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.001260607482631657</v>
+        <v>0.0006822716538813077</v>
       </c>
     </row>
     <row r="196">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>geometrical factor</t>
+          <t>monoclinic symmetry</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.0004668669999402234</v>
+        <v>0.001258771313066487</v>
       </c>
     </row>
     <row r="197">
@@ -2986,11 +2986,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ion diffusion rate</t>
+          <t>structural disorder</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.004082980383968887</v>
+        <v>0.001301908885043827</v>
       </c>
     </row>
     <row r="198">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>compressive strain</t>
+          <t>carrier hopping rate</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.0001328860186788045</v>
+        <v>0.001379350817990449</v>
       </c>
     </row>
     <row r="199">
@@ -3012,11 +3012,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>c lattice parameter</t>
+          <t>crystal lattice size</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.005148853599196372</v>
+        <v>0.002257040725385109</v>
       </c>
     </row>
     <row r="200">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>geometry parameters</t>
+          <t>lattice parameters a</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.001261183546224518</v>
+        <v>0.01168475132707909</v>
       </c>
     </row>
     <row r="201">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>lattice deformation</t>
+          <t>rhombohedral lattice</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.00113627344159559</v>
+        <v>0.001924477882553574</v>
       </c>
     </row>
     <row r="202">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>mechanical strength</t>
+          <t>structural expansion</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.0006791537539278853</v>
+        <v>0.001562511849154044</v>
       </c>
     </row>
     <row r="203">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>monoclinic symmetry</t>
+          <t>unit cell parameters</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.001253018878539782</v>
+        <v>0.002723709730590674</v>
       </c>
     </row>
     <row r="204">
@@ -3077,11 +3077,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>structural disorder</t>
+          <t>diffusion coefficient</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.00129595931696644</v>
+        <v>0.001297090758069389</v>
       </c>
     </row>
     <row r="205">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>carrier hopping rate</t>
+          <t>high bending strength</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.001373047349530782</v>
+        <v>0.002438620996856743</v>
       </c>
     </row>
     <row r="206">
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>crystal lattice size</t>
+          <t>lithium ion migration</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.002246726318898313</v>
+        <v>0.004719197250782595</v>
       </c>
     </row>
     <row r="207">
@@ -3116,11 +3116,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lattice parameters a</t>
+          <t>monoclinic distortion</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.01163135340938575</v>
+        <v>0.000947512140454101</v>
       </c>
     </row>
     <row r="208">
@@ -3129,11 +3129,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>rhombohedral lattice</t>
+          <t>rhombohedral symmetry</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.001915683248530247</v>
+        <v>0.001426993214717333</v>
       </c>
     </row>
     <row r="209">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>structural expansion</t>
+          <t>structural distortion</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.001555371356662549</v>
+        <v>0.001342349516696046</v>
       </c>
     </row>
     <row r="210">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>unit cell parameters</t>
+          <t>structural parameters</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.002711262702498807</v>
+        <v>0.002179426278461212</v>
       </c>
     </row>
     <row r="211">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>diffusion coefficient</t>
+          <t>diffusion coefficients</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.001291163208256697</v>
+        <v>0.001194457750557182</v>
       </c>
     </row>
     <row r="212">
@@ -3181,11 +3181,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>high bending strength</t>
+          <t>orientational disorder</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.002427476790221071</v>
+        <v>0.0002217393976097497</v>
       </c>
     </row>
     <row r="213">
@@ -3194,11 +3194,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>lithium ion migration</t>
+          <t>crystal lattice species</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.004697631083106273</v>
+        <v>0.001860604473485499</v>
       </c>
     </row>
     <row r="214">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>monoclinic distortion</t>
+          <t>mo stretching distortion</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.0009431821231629196</v>
+        <v>0.000655389798685834</v>
       </c>
     </row>
     <row r="215">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>rhombohedral symmetry</t>
+          <t>low expansion coefﬁcients</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.00142047202619603</v>
+        <v>0.001470508898221263</v>
       </c>
     </row>
     <row r="216">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>structural distortion</t>
+          <t>crystal lattice parameters</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.001336215139763085</v>
+        <v>0.002191318531156148</v>
       </c>
     </row>
     <row r="217">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>structural parameters</t>
+          <t>lattice volume contraction</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.002169466560724963</v>
+        <v>0.001226234864029931</v>
       </c>
     </row>
     <row r="218">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>diffusion coefficients</t>
+          <t>lattice parameter variation</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.001188999221328186</v>
+        <v>0.001306846421498336</v>
       </c>
     </row>
     <row r="219">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>orientational disorder</t>
+          <t>glass transition temperature</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.0002207260750518708</v>
+        <v>0.004361393542276133</v>
       </c>
     </row>
     <row r="220">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>crystal lattice species</t>
+          <t>interstitial ionic diffusion</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.001852101733311235</v>
+        <v>0.002405941217356865</v>
       </c>
     </row>
     <row r="221">
@@ -3298,11 +3298,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>mo stretching distortion</t>
+          <t>phase transition temperature</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.0006523947455993231</v>
+        <v>0.004821732849424311</v>
       </c>
     </row>
     <row r="222">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>low expansion coefﬁcients</t>
+          <t>thermal expansion behaviours</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.001463788848224772</v>
+        <v>0.001049221023920203</v>
       </c>
     </row>
     <row r="223">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>crystal lattice parameters</t>
+          <t>anisotropic thermal expansion</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.002181304467245744</v>
+        <v>0.001111078500584515</v>
       </c>
     </row>
     <row r="224">
@@ -3337,11 +3337,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>lattice volume contraction</t>
+          <t>hexagonal unit cell parameter</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.001220631117188488</v>
+        <v>0.001873200455699206</v>
       </c>
     </row>
     <row r="225">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>lattice parameter variation</t>
+          <t>rhombohedral crystal symmetry</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.001300874289469194</v>
+        <v>0.001702286940791931</v>
       </c>
     </row>
     <row r="226">
@@ -3363,11 +3363,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>glass transition temperature</t>
+          <t>characteristic parameter</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.004341462494804116</v>
+        <v>0.0007975414742585583</v>
       </c>
     </row>
     <row r="227">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>interstitial ionic diffusion</t>
+          <t>temperature structure is measured</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.002394946353409551</v>
+        <v>0.008510643518455624</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>phase transition temperature</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.004799698106311195</v>
+        <v>0.001291618145305144</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>thermal expansion behaviours</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.001044426209181821</v>
+        <v>0.0005192980759577845</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>anisotropic thermal expansion</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.00110600100456733</v>
+        <v>0.0008571382493460674</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>hexagonal unit cell parameter</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.001864640153390953</v>
+        <v>0.007133312044343209</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>rhombohedral crystal symmetry</t>
+          <t>high porosity</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.001694507692829315</v>
+        <v>0.003380699845740061</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>characteristic parameter</t>
+          <t>high pressure</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.0007938968049962533</v>
+        <v>0.003766859880413741</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>temperature structure is measured</t>
+          <t>lower porosity</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.008471750894265781</v>
+        <v>0.001182585372839509</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>oxygen pressure</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.001285715604679021</v>
+        <v>0.001586292039812184</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>porosity</t>
+          <t>room temperature</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.0005169249457864952</v>
+        <v>0.004695200402636743</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>constant pressure</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.0008532212299410994</v>
+        <v>0.001325738282527213</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>electrode porosity</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.007100713660452744</v>
+        <v>0.003082617593899172</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>high porosity</t>
+          <t>high oxygen pressure</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.003365250451306621</v>
+        <v>0.003138228565048902</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>high pressure</t>
+          <t>absolute temperature</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.003749645780752884</v>
+        <v>0.003738649907983262</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>lower porosity</t>
+          <t>high oxygen pressures</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.001177181098958396</v>
+        <v>0.002784560351699376</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>oxygen pressure</t>
+          <t>high room temperature</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.001579042874690185</v>
+        <v>0.005210834140265275</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>room temperature</t>
+          <t>increasing temperature</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.004673743897689761</v>
+        <v>0.004319186124536074</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>constant pressure</t>
+          <t>characteristic parameters</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.001319679816950009</v>
+        <v>0.001444656393823447</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>electrode porosity</t>
+          <t>characteristic temperature</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.003068530399747457</v>
+        <v>0.003916875655204954</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>high oxygen pressure</t>
+          <t>room temperature condition</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.003123887235402372</v>
+        <v>0.003306495071538911</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>absolute temperature</t>
+          <t>overall parameters</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.003721564724526422</v>
+        <v>0.001442684652772156</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>high oxygen pressures</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.002771835243538315</v>
+        <v>0.004359422089863518</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>high room temperature</t>
+          <t>ewald summation energy</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.005187021250735423</v>
+        <v>0.001476053178478678</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>increasing temperature</t>
+          <t>formation energy competing phases</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.004299447959920992</v>
+        <v>0.002202768836370649</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>characteristic parameters</t>
+          <t>energy landscape</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.001438054486683689</v>
+        <v>0.002207056437373055</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>characteristic temperature</t>
+          <t>migration energy</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.003898976001374326</v>
+        <v>0.002746575258087343</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>room temperature condition</t>
+          <t>potential energy</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.003291384784058997</v>
+        <v>0.003499744367321371</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>overall parameters</t>
+          <t>migration entropy</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.001436091756253457</v>
+        <v>0.000708988736544693</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>gibbs energy change</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.004339500051693516</v>
+        <v>0.001958372093651834</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ewald summation energy</t>
+          <t>oxygen vacancy formation</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.001469307791783735</v>
+        <v>0.001509324120535727</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>formation energy competing phases</t>
+          <t>site energy landscapes</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.002192702445933278</v>
+        <v>0.002166541157013006</v>
       </c>
     </row>
     <row r="258">
@@ -3779,11 +3779,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>electronegativity</t>
+          <t>interatomic parameter</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.0002195768730074105</v>
+        <v>0.0005485117380389703</v>
       </c>
     </row>
     <row r="259">
@@ -3792,11 +3792,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>average electronegativity sublattice</t>
+          <t>bond length</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.0004419069276646618</v>
+        <v>0.000735767531920072</v>
       </c>
     </row>
     <row r="260">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>average straight-line path electronegativity</t>
+          <t>bond length mo</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.0003846003596034665</v>
+        <v>0.0007326021766483152</v>
       </c>
     </row>
     <row r="261">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>energy landscape</t>
+          <t>bond length xo</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.002196970453111303</v>
+        <v>0.0004986563288909804</v>
       </c>
     </row>
     <row r="262">
@@ -3831,11 +3831,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>migration energy</t>
+          <t>bond strength</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.002734023737266354</v>
+        <v>0.0007838477203693307</v>
       </c>
     </row>
     <row r="263">
@@ -3844,11 +3844,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>potential energy</t>
+          <t>average bond ionicity</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.003483750953645475</v>
+        <v>0.0006578606866499959</v>
       </c>
     </row>
     <row r="264">
@@ -3857,11 +3857,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>migration entropy</t>
+          <t>average bond ionicity sublattice</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.0007057487427151468</v>
+        <v>0.0005459447879950934</v>
       </c>
     </row>
     <row r="265">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>gibbs energy change</t>
+          <t>standard deviation bond ionicity</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.001949422567132823</v>
+        <v>0.0005192699090918301</v>
       </c>
     </row>
     <row r="266">
@@ -3883,11 +3883,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>oxygen vacancy formation</t>
+          <t>length</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.001502426689610162</v>
+        <v>0.0004578056992420574</v>
       </c>
     </row>
     <row r="267">
@@ -3896,11 +3896,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>site energy landscapes</t>
+          <t>ba bonds</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.002156640322742506</v>
+        <v>0.0004840711813704926</v>
       </c>
     </row>
     <row r="268">
@@ -3909,11 +3909,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>interatomic parameter</t>
+          <t>bond angles</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.0005460051049218617</v>
+        <v>0.0007112555145060929</v>
       </c>
     </row>
     <row r="269">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>bond length</t>
+          <t>bond distances</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.0007324051621946804</v>
+        <v>0.000866772499867726</v>
       </c>
     </row>
     <row r="270">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>bond length mo</t>
+          <t>chemical bonds</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0007292542722183793</v>
+        <v>0.001291025206028737</v>
       </c>
     </row>
     <row r="271">
@@ -3948,11 +3948,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>bond length xo</t>
+          <t>cation repulsion</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.000496377529037904</v>
+        <v>0.000852461307246853</v>
       </c>
     </row>
     <row r="272">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>bond strength</t>
+          <t>coordination bond</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.0007802656299264306</v>
+        <v>0.0008678394945160977</v>
       </c>
     </row>
     <row r="273">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>average bond ionicity</t>
+          <t>coulomb interaction</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.0006548543419006634</v>
+        <v>0.0003913881280802435</v>
       </c>
     </row>
     <row r="274">
@@ -3987,11 +3987,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>average bond ionicity sublattice</t>
+          <t>anion intercalation</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.0005434498855330349</v>
+        <v>0.0007723979504273251</v>
       </c>
     </row>
     <row r="275">
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>standard deviation bond ionicity</t>
+          <t>oxygen bond lengths</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.0005168969076397534</v>
+        <v>0.001068294666067547</v>
       </c>
     </row>
     <row r="276">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>length</t>
+          <t>sodium cation bonds</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0004557135818864218</v>
+        <v>0.002343633693581769</v>
       </c>
     </row>
     <row r="277">
@@ -4026,11 +4026,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ba bonds</t>
+          <t>coulombic interactions</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0004818590338992292</v>
+        <v>0.0005033512943713236</v>
       </c>
     </row>
     <row r="278">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>bond angles</t>
+          <t>intrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.0007080051617720547</v>
+        <v>0.0004473218412252098</v>
       </c>
     </row>
     <row r="279">
@@ -4052,11 +4052,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>bond distances</t>
+          <t>radius</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.0008628114530887907</v>
+        <v>0.0006945570736374542</v>
       </c>
     </row>
     <row r="280">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>chemical bonds</t>
+          <t>r_m_avg/r_na</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.001285125375064274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4078,11 +4078,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>cation repulsion</t>
+          <t>ionic radius na</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.0008485656609085665</v>
+        <v>0.004212298680333814</v>
       </c>
     </row>
     <row r="282">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>coordination bond</t>
+          <t>average radius m site</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.0008638735716990835</v>
+        <v>0.001800432529276043</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>coulomb interaction</t>
+          <t>average radius a site</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.0003895995310905117</v>
+        <v>0.008615739872973623</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>anion intercalation</t>
+          <t>ionic radius element m1</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.0007688681840652598</v>
+        <v>0.001921388752054736</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>oxygen bond lengths</t>
+          <t>ionic radius element m2</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.001063412687063107</v>
+        <v>0.001819938916057475</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>sodium cation bonds</t>
+          <t>ionic radius element x1</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.002332923567574792</v>
+        <v>0.001489229037176956</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>coulombic interactions</t>
+          <t>ionic radius element x2</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.000501051039086867</v>
+        <v>0.001492865281738128</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>intrinsic-atomic parameter</t>
+          <t>maximum deviation radius m site</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0004452776338482996</v>
+        <v>0.001531627705409612</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>radius</t>
+          <t>maximum deviation radius a site</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.000691383030783374</v>
+        <v>0.006983873580367677</v>
       </c>
     </row>
     <row r="290">
@@ -4195,11 +4195,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>r_m_avg/r_na</t>
+          <t>standard deviation radius m site</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>0.001461045538704301</v>
       </c>
     </row>
     <row r="291">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ionic radius na</t>
+          <t>standard deviation radius a site</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.004193048978569862</v>
+        <v>0.006913291413662366</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>average radius m site</t>
+          <t>average effective ionic radius m site</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.001792204767698619</v>
+        <v>0.002087744972420328</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>average radius a site</t>
+          <t>average effective ionic radius x site</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.008576366970998544</v>
+        <v>0.002651290630052809</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ionic radius element m1</t>
+          <t>ionic radius formulaic leftmost dopant</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.001912608234988758</v>
+        <v>0.001101651578942371</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ionic radius element m2</t>
+          <t>ionic radius formulaic rightmost dopant</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.001811622012622711</v>
+        <v>0.001101651578942371</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ionic radius element x1</t>
+          <t>calculated effective ionic radius according formulana</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001482423438381763</v>
+        <v>0.001458940579302185</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ionic radius element x2</t>
+          <t>calculated effective ionic radius according formulad2</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.001486043065739679</v>
+        <v>0.001458614913745223</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>maximum deviation radius m site</t>
+          <t>calculated effective ionic radius according formulad3</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.001524628349765581</v>
+        <v>0.001458614913745223</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>maximum deviation radius a site</t>
+          <t>radius m1</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.006951958112405521</v>
+        <v>0.001234630422278062</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>standard deviation radius m site</t>
+          <t>radius m2</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.0014543687351303</v>
+        <v>0.001031730750283539</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>standard deviation radius a site</t>
+          <t>radius x1</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.00688169849777024</v>
+        <v>0.0003703109925225022</v>
       </c>
     </row>
     <row r="302">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>average effective ionic radius m site</t>
+          <t>radius x2</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.002078204227300351</v>
+        <v>0.000377583481644846</v>
       </c>
     </row>
     <row r="303">
@@ -4364,11 +4364,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>average effective ionic radius x site</t>
+          <t>effective mean ionic radius m</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.002639174548599147</v>
+        <v>0.00197892717205667</v>
       </c>
     </row>
     <row r="304">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ionic radius formulaic leftmost dopant</t>
+          <t>effective mean ionic radius x</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.001096617162830941</v>
+        <v>0.002655181961215648</v>
       </c>
     </row>
     <row r="305">
@@ -4390,11 +4390,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ionic radius formulaic rightmost dopant</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.001096617162830941</v>
+        <v>0.001365123738237157</v>
       </c>
     </row>
     <row r="306">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulana</t>
+          <t>volume na</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.001452273395141191</v>
+        <v>0.004432003182103851</v>
       </c>
     </row>
     <row r="307">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad2</t>
+          <t>volume d2</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.001451949217836921</v>
+        <v>0.0007199976523165851</v>
       </c>
     </row>
     <row r="308">
@@ -4429,11 +4429,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad3</t>
+          <t>volume d3</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.001451949217836921</v>
+        <v>0.0007036030149647164</v>
       </c>
     </row>
     <row r="309">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>radius m1</t>
+          <t>volume per anion</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.001228988308738366</v>
+        <v>0.0009208424082509608</v>
       </c>
     </row>
     <row r="310">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>radius m2</t>
+          <t>calculated effective volume species d1 according formula na</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.001027015864006271</v>
+        <v>0.001857928280633279</v>
       </c>
     </row>
     <row r="311">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>radius x1</t>
+          <t>calculated effective volume species d2 according formula d2</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0003686187155243747</v>
+        <v>0.0009311472595299261</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>radius x2</t>
+          <t>calculated effective volume species d3 according formula d3</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0003758579702402078</v>
+        <v>0.0009229499408539918</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>effective mean ionic radius m</t>
+          <t>volume m1</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.001969883711284877</v>
+        <v>0.001569913754577913</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>effective mean ionic radius x</t>
+          <t>volume m2</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.002643048096843434</v>
+        <v>0.00136701408258339</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>volume na</t>
+          <t>volume x1</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.004411749457012915</v>
+        <v>0.0007055943248223536</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>volume d2</t>
+          <t>volume x2</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0007167073490570968</v>
+        <v>0.0007128668139446975</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>volume d3</t>
+          <t>effective mean volume m</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0007003876332394074</v>
+        <v>0.001530436545872402</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>volume per anion</t>
+          <t>effective mean volume x</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.0009166342684499562</v>
+        <v>0.002375755032321125</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>calculated effective volume species d1 according formula na</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.001849437770340649</v>
+        <v>0.0008180507053306723</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>calculated effective volume species d2 according formula d2</t>
+          <t>valence element m1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.000926892027789604</v>
+        <v>0.001121864099506239</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>calculated effective volume species d3 according formula d3</t>
+          <t>valence element m2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0009187321698807593</v>
+        <v>0.0009865976515098904</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>volume m1</t>
+          <t>valence element x1</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.00156273943626287</v>
+        <v>0.000545651146335866</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>volume m2</t>
+          <t>valence element x2</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.001360766991530775</v>
+        <v>0.0005504994724174285</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>volume x1</t>
+          <t>average ionic charge states m site</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.000702369843048879</v>
+        <v>0.002434881002279985</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>volume x2</t>
+          <t>average ionic charge states a site</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0007096090977647121</v>
+        <v>0.006978419231411706</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>effective mean volume m</t>
+          <t>average effective ionic valence m site</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.001523442633685158</v>
+        <v>0.002108327244369197</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>effective mean volume x</t>
+          <t>average effective ionic valence x site</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.002364898115633353</v>
+        <v>0.002671872902001679</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>valence</t>
+          <t>maximum deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.0008143123113324198</v>
+        <v>0.002152242060517686</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>valence element m1</t>
+          <t>maximum deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.001116737314590439</v>
+        <v>0.006046703399773447</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>valence element m2</t>
+          <t>standard deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.0009820890181023759</v>
+        <v>0.002101826227156749</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>valence element x1</t>
+          <t>standard deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.0005431575857811116</v>
+        <v>0.00599628756641251</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>valence element x2</t>
+          <t>valence m1</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.000547983755591667</v>
+        <v>0.001296377238124671</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>average ionic charge states m site</t>
+          <t>valence m2</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.002423753886972746</v>
+        <v>0.001093477566130148</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>average ionic charge states a site</t>
+          <t>valence x1</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.006946528689172697</v>
+        <v>0.0004320578083691112</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>average effective ionic valence m site</t>
+          <t>valence x2</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.002098692440725191</v>
+        <v>0.0004393302974914551</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>average effective ionic valence x site</t>
+          <t>effective mean valence m</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.002659662762023988</v>
+        <v>0.001393668287645781</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states m site</t>
+          <t>effective mean valence x</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.002142406571409987</v>
+        <v>0.002238986774094503</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states a site</t>
+          <t>electronegativity</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.006019070687581373</v>
+        <v>0.0002205849197393368</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states m site</t>
+          <t>x_m_avg-x_a</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.002092221132384785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states a site</t>
+          <t>x_m_avg-x_na</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.005968885248556172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>valence m1</t>
+          <t>electronegativity na</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.001290452949012889</v>
+        <v>0.003859733772854941</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>valence m2</t>
+          <t>electronegativity dopant d2</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.001088480504280794</v>
+        <v>0.0002203188044906544</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>valence x1</t>
+          <t>electronegativity dopant d3</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.0004300833557988976</v>
+        <v>0.0002093890462560754</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>valence x2</t>
+          <t>electronegativity element m1</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.0004373226105147308</v>
+        <v>0.0009227088376424607</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>effective mean valence m</t>
+          <t>electronegativity element m2</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.001387299390060168</v>
+        <v>0.0007874423896461118</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>effective mean valence x</t>
+          <t>electronegativity element x1</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.002228754872008363</v>
+        <v>0.0003464958844720874</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>x_m_avg-x_a</t>
+          <t>electronegativity element x2</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>0.0003513442105536499</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>x_m_avg-x_na</t>
+          <t>average electronegativity m site</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>0.001681939490801513</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>electronegativity na</t>
+          <t>average electronegativity a site</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.00384209525060043</v>
+        <v>0.008497246834499095</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>electronegativity dopant d2</t>
+          <t>average effective electronegativity m site</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.0002193119738736243</v>
+        <v>0.001521808267846081</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>electronegativity dopant d3</t>
+          <t>average effective electronegativity x site</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.000208432163328498</v>
+        <v>0.002198063057005059</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>electronegativity element m1</t>
+          <t>maximum deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.0009184921684821025</v>
+        <v>0.001436833274629989</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>electronegativity element m2</t>
+          <t>maximum deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.0007838438719940395</v>
+        <v>0.006889079149588054</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>electronegativity element x1</t>
+          <t>standard deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.0003449124396727751</v>
+        <v>0.001366251107924677</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>electronegativity element x2</t>
+          <t>standard deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.0003497386094833305</v>
+        <v>0.006818496982882742</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>average electronegativity m site</t>
+          <t>calculated effective electronegativity according formula na</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.001674253228254628</v>
+        <v>0.002076174567058643</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>average electronegativity a site</t>
+          <t>calculated effective electronegativity according formula d2</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.008458415431554555</v>
+        <v>0.0008388393904628878</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>average effective electronegativity m site</t>
+          <t>calculated effective electronegativity according formula d3</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.001514853785858675</v>
+        <v>0.0008333745113455984</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>average effective electronegativity x site</t>
+          <t>electronegativity m1</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.002188018171417231</v>
+        <v>0.0009976443453290035</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity m site</t>
+          <t>electronegativity m2</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.001430267118210388</v>
+        <v>0.00079474467333448</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity a site</t>
+          <t>electronegativity x1</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.006857596880850328</v>
+        <v>0.0001333249155734435</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity m site</t>
+          <t>electronegativity x2</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.001360007503575107</v>
+        <v>0.0001405974046957873</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity a site</t>
+          <t>effective mean element electronegativity m</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.006787337266215047</v>
+        <v>0.001150009037452232</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula na</t>
+          <t>effective mean element electronegativity x</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.002066686697308957</v>
+        <v>0.001826263826611211</v>
       </c>
     </row>
     <row r="365">
@@ -5170,11 +5170,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d2</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.000835005994657017</v>
+        <v>0.001056475798652517</v>
       </c>
     </row>
     <row r="366">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d3</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.0008295660893844539</v>
+        <v>0.0009062201368311017</v>
       </c>
     </row>
     <row r="367">
@@ -5196,11 +5196,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>electronegativity m1</t>
+          <t>magnetic</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.0009930852298503843</v>
+        <v>0.0008806066393344289</v>
       </c>
     </row>
     <row r="368">
@@ -5209,11 +5209,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>electronegativity m2</t>
+          <t>valences</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.0007911127851182895</v>
+        <v>6.720949597350403e-05</v>
       </c>
     </row>
     <row r="369">
@@ -5222,11 +5222,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>electronegativity x1</t>
+          <t>ion radii</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.000132715636636393</v>
+        <v>0.003756926298124223</v>
       </c>
     </row>
     <row r="370">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>electronegativity x2</t>
+          <t>ion radius</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.0001399548913522261</v>
+        <v>0.003876556857147202</v>
       </c>
     </row>
     <row r="371">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity m</t>
+          <t>ionic size</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.00114475363353224</v>
+        <v>0.003414748222830262</v>
       </c>
     </row>
     <row r="372">
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity x</t>
+          <t>active mass</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001817918019090796</v>
+        <v>0.001280866176548232</v>
       </c>
     </row>
     <row r="373">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>cation size</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00105164783046027</v>
+        <v>0.00196891777563211</v>
       </c>
     </row>
     <row r="374">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>ionic radii</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.0009020788190636957</v>
+        <v>0.00244937614849247</v>
       </c>
     </row>
     <row r="375">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>magnetic</t>
+          <t>cation sizes</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.0008765823721907701</v>
+        <v>0.00104031023430467</v>
       </c>
     </row>
     <row r="376">
@@ -5313,11 +5313,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>valences</t>
+          <t>divalent ion</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>6.690235660581491e-05</v>
+        <v>0.003760381491331893</v>
       </c>
     </row>
     <row r="377">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ion radii</t>
+          <t>ionic radius</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.003739757593747754</v>
+        <v>0.002569006707515449</v>
       </c>
     </row>
     <row r="378">
@@ -5339,11 +5339,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ion radius</t>
+          <t>polarization</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.003858841455407178</v>
+        <v>0.001030007714814593</v>
       </c>
     </row>
     <row r="379">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ionic size</t>
+          <t>cation radius</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.00339914323138097</v>
+        <v>0.001123176260317298</v>
       </c>
     </row>
     <row r="380">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>active mass</t>
+          <t>oxygen radius</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.001275012771134888</v>
+        <v>0.001287761503978339</v>
       </c>
     </row>
     <row r="381">
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>cation size</t>
+          <t>valence state</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.001959920056606246</v>
+        <v>0.002101354823570831</v>
       </c>
     </row>
     <row r="382">
@@ -5391,11 +5391,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ionic radii</t>
+          <t>atomic masses</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.002438182792098644</v>
+        <v>0.0004023330239464463</v>
       </c>
     </row>
     <row r="383">
@@ -5404,11 +5404,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>cation sizes</t>
+          <t>mass m1</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.001035556140810339</v>
+        <v>0.001415589784785594</v>
       </c>
     </row>
     <row r="384">
@@ -5417,11 +5417,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>divalent ion</t>
+          <t>mass m2</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.003743196997135225</v>
+        <v>0.00121269011279107</v>
       </c>
     </row>
     <row r="385">
@@ -5430,11 +5430,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ionic radius</t>
+          <t>mass x1</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.002557266653758068</v>
+        <v>0.0005512703550300337</v>
       </c>
     </row>
     <row r="386">
@@ -5443,11 +5443,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>polarization</t>
+          <t>mass x2</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.001025300702603583</v>
+        <v>0.0005585428441523774</v>
       </c>
     </row>
     <row r="387">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>cation radius</t>
+          <t>effective meant mass m</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.001118043478983343</v>
+        <v>0.001355296047880771</v>
       </c>
     </row>
     <row r="388">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>oxygen radius</t>
+          <t>effective mean mass x</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.001281876587742362</v>
+        <v>0.002298593047424964</v>
       </c>
     </row>
     <row r="389">
@@ -5482,11 +5482,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>valence state</t>
+          <t>polarizability</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.002091751883056942</v>
+        <v>8.086062712184776e-05</v>
       </c>
     </row>
     <row r="390">
@@ -5495,11 +5495,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>atomic masses</t>
+          <t>polarizability m1</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.0004004944100900934</v>
+        <v>0.0009277821990202589</v>
       </c>
     </row>
     <row r="391">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>mass m1</t>
+          <t>polarizability m2</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.001409120708576814</v>
+        <v>0.0007248825270257355</v>
       </c>
     </row>
     <row r="392">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>mass m2</t>
+          <t>polarizability x1</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.001207148263844719</v>
+        <v>6.346276926469899e-05</v>
       </c>
     </row>
     <row r="393">
@@ -5534,11 +5534,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>mass x1</t>
+          <t>polarizability x2</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.0005487511153628229</v>
+        <v>7.073525838704283e-05</v>
       </c>
     </row>
     <row r="394">
@@ -5547,11 +5547,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>mass x2</t>
+          <t>effective mean element polarizability m</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.0005559903700786559</v>
+        <v>0.001122064178928735</v>
       </c>
     </row>
     <row r="395">
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>effective meant mass m</t>
+          <t>effective mean element polarizability x</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.0013491025068469</v>
+        <v>0.001798318968087713</v>
       </c>
     </row>
     <row r="396">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>effective mean mass x</t>
+          <t>average radius</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.002288088751790325</v>
+        <v>0.000797791021834817</v>
       </c>
     </row>
     <row r="397">
@@ -5586,11 +5586,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>polarizability</t>
+          <t>valence states</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>8.049110371558767e-05</v>
+        <v>0.000736218867717932</v>
       </c>
     </row>
     <row r="398">
@@ -5599,11 +5599,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>polarizability m1</t>
+          <t>rb concentration</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.0009235423452044726</v>
+        <v>0.001573214322107803</v>
       </c>
     </row>
     <row r="399">
@@ -5612,11 +5612,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>polarizability m2</t>
+          <t>vanadium content</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.0007215699004723781</v>
+        <v>0.001259748436654981</v>
       </c>
     </row>
     <row r="400">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>polarizability x1</t>
+          <t>ionization energy</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6.317275199048159e-05</v>
+        <v>0.002217018148124301</v>
       </c>
     </row>
     <row r="401">
@@ -5638,11 +5638,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>polarizability x2</t>
+          <t>first ionization energy m1</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>7.041200670631471e-05</v>
+        <v>0.001993884149552606</v>
       </c>
     </row>
     <row r="402">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>effective mean element polarizability m</t>
+          <t>first ionization energy m2</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.001116936479673876</v>
+        <v>0.001892434313555344</v>
       </c>
     </row>
     <row r="403">
@@ -5664,11 +5664,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>effective mean element polarizability x</t>
+          <t>first ionization energy x1</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.001790100865232432</v>
+        <v>0.001561724434674826</v>
       </c>
     </row>
     <row r="404">
@@ -5677,11 +5677,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>average radius</t>
+          <t>first ionization energy x2</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.0007941452121698997</v>
+        <v>0.001565360679235998</v>
       </c>
     </row>
     <row r="405">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>valence states</t>
+          <t>second ionization energy m1</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.0007328544354418613</v>
+        <v>0.001785811858816308</v>
       </c>
     </row>
     <row r="406">
@@ -5703,11 +5703,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>rb concentration</t>
+          <t>second ionization energy m2</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.001566024920593437</v>
+        <v>0.001684362022819046</v>
       </c>
     </row>
     <row r="407">
@@ -5716,11 +5716,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>vanadium content</t>
+          <t>second ionization energy x1</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.001253991536790204</v>
+        <v>0.001353652143938528</v>
       </c>
     </row>
     <row r="408">
@@ -5729,11 +5729,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ionization energy</t>
+          <t>second ionization energy x2</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.002206886640034452</v>
+        <v>0.0013572883884997</v>
       </c>
     </row>
     <row r="409">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>first ionization energy m1</t>
+          <t>divalent ion size</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.001984772337180431</v>
+        <v>0.003302267695643622</v>
       </c>
     </row>
     <row r="410">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>first ionization energy m2</t>
+          <t>mobile ion radius</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.001883786114814384</v>
+        <v>0.002820983965239077</v>
       </c>
     </row>
     <row r="411">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>first ionization energy x1</t>
+          <t>anion radius ratio</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.001554587540573435</v>
+        <v>0.0009118459020849559</v>
       </c>
     </row>
     <row r="412">
@@ -5781,11 +5781,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>first ionization energy x2</t>
+          <t>w ion concentration</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.001558207167931352</v>
+        <v>0.003514835212634041</v>
       </c>
     </row>
     <row r="413">
@@ -5794,11 +5794,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>second ionization energy m1</t>
+          <t>pentavalent vanadium</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.001777650911956286</v>
+        <v>0.0004621869319725437</v>
       </c>
     </row>
     <row r="414">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>second ionization energy m2</t>
+          <t>high molecular weight</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.001676664689590239</v>
+        <v>0.002540820481069863</v>
       </c>
     </row>
     <row r="415">
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>second ionization energy x1</t>
+          <t>polarizability cations</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.001347466115349291</v>
+        <v>0.001038401696512731</v>
       </c>
     </row>
     <row r="416">
@@ -5833,11 +5833,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>second ionization energy x2</t>
+          <t>effective ionic radius</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.001351085742707207</v>
+        <v>0.002006432263685084</v>
       </c>
     </row>
     <row r="417">
@@ -5846,11 +5846,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>divalent ion size</t>
+          <t>oxidation state cation</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.003287176726766543</v>
+        <v>0.002061672706019109</v>
       </c>
     </row>
     <row r="418">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>mobile ion radius</t>
+          <t>octahedral cation radius</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.002808092405515339</v>
+        <v>0.001018506125845186</v>
       </c>
     </row>
     <row r="419">
@@ -5872,11 +5872,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>anion radius ratio</t>
+          <t>vanadium oxidation state</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.0009076788752423989</v>
+        <v>0.001783021302593484</v>
       </c>
     </row>
     <row r="420">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>w ion concentration</t>
+          <t>pauling electronegativity</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.003498772835597832</v>
+        <v>0.0001230565035120705</v>
       </c>
     </row>
     <row r="421">
@@ -5898,11 +5898,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>pentavalent vanadium</t>
+          <t>extrinsic-atomic parameter</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.000460074792906716</v>
+        <v>0.0004473218412252098</v>
       </c>
     </row>
     <row r="422">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>high molecular weight</t>
+          <t>occupancy</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.002529209235000184</v>
+        <v>0.0005021982666268774</v>
       </c>
     </row>
     <row r="423">
@@ -5924,11 +5924,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>polarizability cations</t>
+          <t>occupancy element m1</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.001033656324808114</v>
+        <v>0.001016579953271641</v>
       </c>
     </row>
     <row r="424">
@@ -5937,11 +5937,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>effective ionic radius</t>
+          <t>occupancy element m2</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.001997263107930333</v>
+        <v>0.000881313505275292</v>
       </c>
     </row>
     <row r="425">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>oxidation state cation</t>
+          <t>occupancy element x1</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.002052251108041967</v>
+        <v>0.0004403670001012677</v>
       </c>
     </row>
     <row r="426">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>octahedral cation radius</t>
+          <t>occupancy element x2</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.001013851674521775</v>
+        <v>0.0004452153261828302</v>
       </c>
     </row>
     <row r="427">
@@ -5976,11 +5976,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>vanadium oxidation state</t>
+          <t>occupancy na+ wyckoff 6b site</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.001774873108242038</v>
+        <v>0.000630874272130377</v>
       </c>
     </row>
     <row r="428">
@@ -5989,11 +5989,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>pauling electronegativity</t>
+          <t>occupancy na+ wyckoff 18e site</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0001224941499914663</v>
+        <v>0.0006053509987598972</v>
       </c>
     </row>
     <row r="429">
@@ -6002,11 +6002,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>extrinsic-atomic parameter</t>
+          <t>occupancy na+ wyckoff 36f site</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.0004452776338482996</v>
+        <v>0.0005815488534040271</v>
       </c>
     </row>
     <row r="430">
@@ -6015,11 +6015,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>occupancy</t>
+          <t>stoichiometric occupancy d2 dopant position</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.000499903280541471</v>
+        <v>0.0004887516708017721</v>
       </c>
     </row>
     <row r="431">
@@ -6028,11 +6028,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>occupancy element m1</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.001011934304326789</v>
+        <v>0.002659504012855568</v>
       </c>
     </row>
     <row r="432">
@@ -6041,11 +6041,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>occupancy element m2</t>
+          <t>na content</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.0008772860078387263</v>
+        <v>0.004651269131280118</v>
       </c>
     </row>
     <row r="433">
@@ -6054,11 +6054,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>occupancy element x1</t>
+          <t>na+ concentration</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.000438354575517462</v>
+        <v>0.001329752006427784</v>
       </c>
     </row>
     <row r="434">
@@ -6067,11 +6067,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>occupancy element x2</t>
+          <t>stoichiometric species m according formula</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.0004431807453280174</v>
+        <v>0.001532230602647532</v>
       </c>
     </row>
     <row r="435">
@@ -6080,11 +6080,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 6b site</t>
+          <t>stoichiometric species na according formula</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.0006279912520715766</v>
+        <v>0.002337618446657718</v>
       </c>
     </row>
     <row r="436">
@@ -6093,11 +6093,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 18e site</t>
+          <t>stoichiometric species po4 according formula</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.0006025846170113657</v>
+        <v>0.003605113939389533</v>
       </c>
     </row>
     <row r="437">
@@ -6106,11 +6106,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>occupancy na+ wyckoff 36f site</t>
+          <t>fe doped</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.0005788912446163451</v>
+        <v>0.001939259510327779</v>
       </c>
     </row>
     <row r="438">
@@ -6119,11 +6119,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>stoichiometric occupancy d2 dopant position</t>
+          <t>m ratios</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.0004865181340529435</v>
+        <v>0.001978220542507459</v>
       </c>
     </row>
     <row r="439">
@@ -6132,11 +6132,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>concentration</t>
+          <t>al doping</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002647350397223676</v>
+        <v>0.002588462471217056</v>
       </c>
     </row>
     <row r="440">
@@ -6145,11 +6145,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>na content</t>
+          <t>m vacancy</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.004630013386995165</v>
+        <v>0.001959586399657704</v>
       </c>
     </row>
     <row r="441">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>na+ concentration</t>
+          <t>mn doping</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.001323675198611838</v>
+        <v>0.00131159664931942</v>
       </c>
     </row>
     <row r="442">
@@ -6171,11 +6171,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>stoichiometric species m according formula</t>
+          <t>al content</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.001525228491835146</v>
+        <v>0.002706933058143331</v>
       </c>
     </row>
     <row r="443">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>stoichiometric species na according formula</t>
+          <t>content</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.002326935809610596</v>
+        <v>0.001803655636589692</v>
       </c>
     </row>
     <row r="444">
@@ -6197,11 +6197,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>stoichiometric species po4 according formula</t>
+          <t>vacancy</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.003588638999356833</v>
+        <v>0.0004472293933957934</v>
       </c>
     </row>
     <row r="445">
@@ -6210,11 +6210,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>fe doped</t>
+          <t>na vacancy</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.001930397326031351</v>
+        <v>0.003973056009683169</v>
       </c>
     </row>
     <row r="446">
@@ -6223,11 +6223,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>m ratios</t>
+          <t>nb content</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.001969180310948291</v>
+        <v>0.001303437447763309</v>
       </c>
     </row>
     <row r="447">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>al doping</t>
+          <t>ni content</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.002576633506943761</v>
+        <v>0.001347421632424571</v>
       </c>
     </row>
     <row r="448">
@@ -6249,11 +6249,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>m vacancy</t>
+          <t>ion content</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.001950631323905308</v>
+        <v>0.004431106138623321</v>
       </c>
     </row>
     <row r="449">
@@ -6262,11 +6262,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>mn doping</t>
+          <t>m vacancies</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.001305602809316603</v>
+        <v>0.002008650971178719</v>
       </c>
     </row>
     <row r="450">
@@ -6275,11 +6275,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>al content</t>
+          <t>anion doping</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.002694562697440392</v>
+        <v>0.001023851095042847</v>
       </c>
     </row>
     <row r="451">
@@ -6288,11 +6288,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>na vacancies</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.00179541314579688</v>
+        <v>0.004022120581204184</v>
       </c>
     </row>
     <row r="452">
@@ -6301,11 +6301,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>vacancy</t>
+          <t>cation doping</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.0004451856084944197</v>
+        <v>0.001559254954867141</v>
       </c>
     </row>
     <row r="453">
@@ -6314,11 +6314,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>na vacancy</t>
+          <t>per volume</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.003954899618343935</v>
+        <v>0.001140769748702164</v>
       </c>
     </row>
     <row r="454">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>nb content</t>
+          <t>gallium doping</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.001297480894336897</v>
+        <v>0.000873933936576687</v>
       </c>
     </row>
     <row r="455">
@@ -6340,11 +6340,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ni content</t>
+          <t>sodium content</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.00134126407652865</v>
+        <v>0.003360869023677603</v>
       </c>
     </row>
     <row r="456">
@@ -6353,11 +6353,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ion content</t>
+          <t>anion vacancies</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.00441085651291393</v>
+        <v>0.0005131731318931881</v>
       </c>
     </row>
     <row r="457">
@@ -6366,11 +6366,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>m vacancies</t>
+          <t>sodium contents</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.001999471676195771</v>
+        <v>0.002704612530609363</v>
       </c>
     </row>
     <row r="458">
@@ -6379,11 +6379,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>anion doping</t>
+          <t>ag concentration</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.001019172217848718</v>
+        <v>0.001800786627700076</v>
       </c>
     </row>
     <row r="459">
@@ -6392,11 +6392,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>na vacancies</t>
+          <t>chromium content</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.004003739970634398</v>
+        <v>0.001080676104123974</v>
       </c>
     </row>
     <row r="460">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>cation doping</t>
+          <t>na concentration</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.001552129345993466</v>
+        <v>0.005079193319413056</v>
       </c>
     </row>
     <row r="461">
@@ -6418,11 +6418,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>per volume</t>
+          <t>na ions per unit</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.001135556567228025</v>
+        <v>0.003557308785669513</v>
       </c>
     </row>
     <row r="462">
@@ -6431,11 +6431,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>gallium doping</t>
+          <t>oxygen vacancies</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.0008699401628875037</v>
+        <v>0.001213162235378523</v>
       </c>
     </row>
     <row r="463">
@@ -6444,11 +6444,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>sodium content</t>
+          <t>zirconium doping</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.003345510253731979</v>
+        <v>0.001323350376199732</v>
       </c>
     </row>
     <row r="464">
@@ -6457,11 +6457,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>anion vacancies</t>
+          <t>anion occupancies</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.0005108279919845825</v>
+        <v>0.0003472126425417999</v>
       </c>
     </row>
     <row r="465">
@@ -6470,11 +6470,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>sodium contents</t>
+          <t>germanium content</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.002692252774440042</v>
+        <v>0.001041733703302127</v>
       </c>
     </row>
     <row r="466">
@@ -6483,11 +6483,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>ag concentration</t>
+          <t>ion concentration</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.001792557247935155</v>
+        <v>0.004859030326756259</v>
       </c>
     </row>
     <row r="467">
@@ -6496,11 +6496,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>chromium content</t>
+          <t>m occupancy ratio</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.001075737543426714</v>
+        <v>0.001844711525938451</v>
       </c>
     </row>
     <row r="468">
@@ -6509,11 +6509,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>na concentration</t>
+          <t>occupation factor</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.005055982012708562</v>
+        <v>0.0006045201924130708</v>
       </c>
     </row>
     <row r="469">
@@ -6522,11 +6522,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>na ions per unit</t>
+          <t>zirconium content</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.003541052309478466</v>
+        <v>0.001441820963126008</v>
       </c>
     </row>
     <row r="470">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>oxygen vacancies</t>
+          <t>high concentration</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.001207618228888348</v>
+        <v>0.004450802814188953</v>
       </c>
     </row>
     <row r="471">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>zirconium doping</t>
+          <t>occupation factors</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.001317302823069183</v>
+        <v>0.0006151248013426472</v>
       </c>
     </row>
     <row r="472">
@@ -6561,11 +6561,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>anion occupancies</t>
+          <t>vacancy occupation</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.0003456259222437335</v>
+        <v>0.0004294301509144247</v>
       </c>
     </row>
     <row r="473">
@@ -6574,11 +6574,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>germanium content</t>
+          <t>occupancy na 6b</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.001036973104724526</v>
+        <v>0.00279062977404222</v>
       </c>
     </row>
     <row r="474">
@@ -6587,11 +6587,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ion concentration</t>
+          <t>occupancy na 18e</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.004836825138627328</v>
+        <v>0.002748090985091421</v>
       </c>
     </row>
     <row r="475">
@@ -6600,11 +6600,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>m occupancy ratio</t>
+          <t>occupancy na 36f</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.001836281414635891</v>
+        <v>0.002708420742831637</v>
       </c>
     </row>
     <row r="476">
@@ -6613,11 +6613,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>occupation factor</t>
+          <t>occupancy m1</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.0006017576073502953</v>
+        <v>0.001138451018772774</v>
       </c>
     </row>
     <row r="477">
@@ -6626,11 +6626,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>zirconium content</t>
+          <t>occupancy m2</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.001435232013565814</v>
+        <v>0.0009355513467782503</v>
       </c>
     </row>
     <row r="478">
@@ -6639,11 +6639,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>high concentration</t>
+          <t>occupancy x1</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.00443046317702521</v>
+        <v>0.0002741315890172139</v>
       </c>
     </row>
     <row r="479">
@@ -6652,11 +6652,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>occupation factors</t>
+          <t>occupancy x2</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.0006123137544839</v>
+        <v>0.0002814040781395577</v>
       </c>
     </row>
     <row r="480">
@@ -6665,11 +6665,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>vacancy occupation</t>
+          <t>vacancy m</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.0004274677064248766</v>
+        <v>0.001959586399657704</v>
       </c>
     </row>
     <row r="481">
@@ -6678,11 +6678,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>occupancy na 6b</t>
+          <t>vacancy x</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.002777876929346112</v>
+        <v>0.003650223372555149</v>
       </c>
     </row>
     <row r="482">
@@ -6691,11 +6691,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>occupancy na 18e</t>
+          <t>vacancy 6b</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.002735532537579093</v>
+        <v>0.0004090189114625161</v>
       </c>
     </row>
     <row r="483">
@@ -6704,11 +6704,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>occupancy na 36f</t>
+          <t>vacancy 18e</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.002696043583587393</v>
+        <v>0.0003452107280363168</v>
       </c>
     </row>
     <row r="484">
@@ -6717,11 +6717,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>occupancy m1</t>
+          <t>vacancy 36f</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.001133248433617414</v>
+        <v>0.0002857053646466414</v>
       </c>
     </row>
     <row r="485">
@@ -6730,11 +6730,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>occupancy m2</t>
+          <t>high sodium content</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.0009312759888853198</v>
+        <v>0.004321279887625848</v>
       </c>
     </row>
     <row r="486">
@@ -6743,11 +6743,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>occupancy x1</t>
+          <t>lithium ion content</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.0002728788404034233</v>
+        <v>0.004942506320875437</v>
       </c>
     </row>
     <row r="487">
@@ -6756,11 +6756,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>occupancy x2</t>
+          <t>na per formula unit</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.0002801180951192564</v>
+        <v>0.002818560622019611</v>
       </c>
     </row>
     <row r="488">
@@ -6769,11 +6769,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>vacancy m</t>
+          <t>sodium concentration</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.001950631323905308</v>
+        <v>0.003788793211810541</v>
       </c>
     </row>
     <row r="489">
@@ -6782,11 +6782,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>vacancy x</t>
+          <t>lithium concentration</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.003633542287801698</v>
+        <v>0.004312405349117618</v>
       </c>
     </row>
     <row r="490">
@@ -6795,11 +6795,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>vacancy 6b</t>
+          <t>lithium ion contentas</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.0004071497438989173</v>
+        <v>0.004345417778195064</v>
       </c>
     </row>
     <row r="491">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>vacancy 18e</t>
+          <t>carrier concentration</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.00034363315624839</v>
+        <v>0.00154823384160091</v>
       </c>
     </row>
     <row r="492">
@@ -6821,11 +6821,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>vacancy 36f</t>
+          <t>ion per formula unit</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.0002843997252608385</v>
+        <v>0.002708479125691212</v>
       </c>
     </row>
     <row r="493">
@@ -6834,11 +6834,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>high sodium content</t>
+          <t>sodium per formula unit</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.004301532154763569</v>
+        <v>0.002173360568218353</v>
       </c>
     </row>
     <row r="494">
@@ -6847,11 +6847,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>lithium ion content</t>
+          <t>lithium ion concentration</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.004919919657425501</v>
+        <v>0.005227789112964062</v>
       </c>
     </row>
     <row r="495">
@@ -6860,11 +6860,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>na per formula unit</t>
+          <t>structural site occupancy</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.002805680136684891</v>
+        <v>0.001602127323161342</v>
       </c>
     </row>
     <row r="496">
@@ -6873,11 +6873,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>sodium concentration</t>
+          <t>lithium ions concentration</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.003771478879445377</v>
+        <v>0.004234569047345461</v>
       </c>
     </row>
     <row r="497">
@@ -6886,11 +6886,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>lithium concentration</t>
+          <t>tetrahedral site occupancy</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.00429269817183616</v>
+        <v>0.001084777261100253</v>
       </c>
     </row>
     <row r="498">
@@ -6899,11 +6899,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>lithium ion contentas</t>
+          <t>charge carrier concentration</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.004325559738056418</v>
+        <v>0.002033579093972126</v>
       </c>
     </row>
     <row r="499">
@@ -6912,11 +6912,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>carrier concentration</t>
+          <t>lithium charge carrier concentration</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.001541158597898269</v>
+        <v>0.003016510991824011</v>
       </c>
     </row>
     <row r="500">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ion per formula unit</t>
+          <t>overall parameter</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.002696101699644274</v>
+        <v>0.0007955697332072676</v>
       </c>
     </row>
     <row r="501">
@@ -6938,11 +6938,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>sodium per formula unit</t>
+          <t>formation energies</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.002163428570053298</v>
+        <v>0.001541262832361079</v>
       </c>
     </row>
     <row r="502">
@@ -6951,11 +6951,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>lithium ion concentration</t>
+          <t>formation energies materials</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0.005203898741234433</v>
+        <v>0.002553431260180652</v>
       </c>
     </row>
     <row r="503">
@@ -6964,11 +6964,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>structural site occupancy</t>
+          <t>vacancy formation energy</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.001594805792686135</v>
+        <v>0.002335476172383826</v>
       </c>
     </row>
     <row r="504">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>lithium ions concentration</t>
+          <t>entropy migration</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0.004215217572664704</v>
+        <v>0.000708988736544693</v>
       </c>
     </row>
     <row r="505">
@@ -6990,115 +6990,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>tetrahedral site occupancy</t>
+          <t>energy landscaps</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0.00107981995860554</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>charge carrier concentration</t>
-        </is>
-      </c>
-      <c r="C506" t="n">
-        <v>0.002024285880445949</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>lithium charge carrier concentration</t>
-        </is>
-      </c>
-      <c r="C507" t="n">
-        <v>0.003002725896946623</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>overall parameter</t>
-        </is>
-      </c>
-      <c r="C508" t="n">
-        <v>0.0007919340745660209</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>formation energies</t>
-        </is>
-      </c>
-      <c r="C509" t="n">
-        <v>0.0015342194453379</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>formation energies materials</t>
-        </is>
-      </c>
-      <c r="C510" t="n">
-        <v>0.002541762384356933</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>vacancy formation energy</t>
-        </is>
-      </c>
-      <c r="C511" t="n">
-        <v>0.002324803325274218</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>entropy migration</t>
-        </is>
-      </c>
-      <c r="C512" t="n">
-        <v>0.0007057487427151468</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>energy landscaps</t>
-        </is>
-      </c>
-      <c r="C513" t="n">
-        <v>0.002169750025846758</v>
+        <v>0.002179711044931759</v>
       </c>
     </row>
   </sheetData>

--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0004547220583226896</v>
+        <v>0.0004547220583226897</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minimum bt2 and bt1</t>
+          <t>bt1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01197324988552426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>average straight-line path width</t>
+          <t>bt2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004408506866665528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
+          <t>min_bt</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001445496167104675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
+          <t>conduction threshold</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001431316570787742</v>
+        <v>0.0009097359817060786</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
+          <t>minimum bt2 and bt1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002706852462183019</v>
+        <v>0.01197324988552426</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bt1</t>
+          <t>average straight-line path width</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0004408506866665528</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bt2</t>
+          <t>minimum bottleneck na+ jumps from 6b site 36f site</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001445496167104675</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>min_bt</t>
+          <t>minimum bottleneck na+ jumps from 18e site 36f site</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.001431316570787742</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>conduction threshold</t>
+          <t>radius largest sphere probe that can freely pass through void space packed by framework ions</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.002706852462183019</v>
       </c>
     </row>
     <row r="21">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>average shortest li-li separation distance</t>
+          <t>jump distance</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0004166309168426576</v>
+        <v>0.0004627799706183354</v>
       </c>
     </row>
     <row r="25">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>average shortest li-anion separation distance</t>
+          <t>average shortest li-li separation distance</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>average shortest anion-anion separation distance</t>
+          <t>average shortest li-anion separation distance</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jump distance</t>
+          <t>average shortest anion-anion separation distance</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0004627799706183354</v>
+        <v>0.0004166309168426576</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0007219496244341089</v>
+        <v>0.0004662520022254771</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>average neighbor count</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0003351526163890713</v>
+        <v>0.000530063406420791</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>average li-li bonds per</t>
+          <t>polyhedron</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0005946159880455006</v>
+        <v>9.553809781950385e-05</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>anion framework coordination</t>
+          <t>o octahedra</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001133291711701337</v>
+        <v>0.002166935690605725</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>average sublattice neighbor count</t>
+          <t>ions channel</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0003039137352993998</v>
+        <v>0.002260653283738477</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>standard deviation neighbor count</t>
+          <t>ion pathways</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0002772388563961365</v>
+        <v>0.003794310023538871</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ratio average neighbor count average sublattice neighbor count</t>
+          <t>vo polyhedron</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0004726382119542091</v>
+        <v>7.816994658251535e-05</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>channel radius</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0004662520022254771</v>
+        <v>0.0005684835986566309</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>diffusion area</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.000530063406420791</v>
+        <v>0.001676153040201592</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>polyhedron</t>
+          <t>diffusion path</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.553809781950385e-05</v>
+        <v>0.00125807137929855</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>o octahedra</t>
+          <t>ionic pathways</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002166935690605725</v>
+        <v>0.002486759873907118</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ions channel</t>
+          <t>migration path</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.002260653283738477</v>
+        <v>0.0007787912804611781</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ion pathways</t>
+          <t>migration paths</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.003794310023538871</v>
+        <v>0.0007036652214433035</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vo polyhedron</t>
+          <t>anion distances</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.816994658251535e-05</v>
+        <v>0.0006004016812429595</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>channel radius</t>
+          <t>bottleneck area</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0005684835986566309</v>
+        <v>0.0008573697573699812</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>diffusion area</t>
+          <t>bottleneck size</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.001676153040201592</v>
+        <v>0.001420381081294884</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>diffusion path</t>
+          <t>channel section</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00125807137929855</v>
+        <v>0.0005337039477705092</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ionic pathways</t>
+          <t>lithium pathway</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002486759873907118</v>
+        <v>0.003215779343802573</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>migration path</t>
+          <t>na coordination</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0007787912804611781</v>
+        <v>0.004110416125202327</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>migration paths</t>
+          <t>al coordinations</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0007036652214433035</v>
+        <v>0.001811590788204502</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>anion distances</t>
+          <t>bottleneck width</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0006004016812429595</v>
+        <v>0.0004466228501727663</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bottleneck area</t>
+          <t>diffusion length</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000857369757369981</v>
+        <v>0.001275047161613984</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bottleneck size</t>
+          <t>mobility pathway</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001420381081294884</v>
+        <v>0.0007987545138137747</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>channel section</t>
+          <t>coordinated anion</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0005337039477705092</v>
+        <v>0.000460662872352205</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lithium pathway</t>
+          <t>diffusion channel</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.003215779343802573</v>
+        <v>0.00126734937383086</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>na coordination</t>
+          <t>diffusion pathway</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004110416125202327</v>
+        <v>0.001279270313105694</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>al coordinations</t>
+          <t>ionic coordinates</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.001811590788204502</v>
+        <v>0.002405739433481142</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bottleneck width</t>
+          <t>m bottleneck site</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0004466228501727662</v>
+        <v>0.002020290043919076</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>diffusion length</t>
+          <t>migration channel</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.001275047161613984</v>
+        <v>0.0007880692749934876</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mobility pathway</t>
+          <t>polyhedron volume</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0007987545138137746</v>
+        <v>0.0007303309180283305</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>coordinated anion</t>
+          <t>polyhedral mo6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.000460662872352205</v>
+        <v>0.0003395085401516957</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>diffusion channel</t>
+          <t>polyhedral xo4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.00126734937383086</v>
+        <v>0.0003213989389923606</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>diffusion pathway</t>
+          <t>polyhedral na1o6</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001279270313105694</v>
+        <v>9.563580701538487e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ionic coordinates</t>
+          <t>polyhedral na2o8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.002405739433481142</v>
+        <v>9.563580701538487e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>m bottleneck site</t>
+          <t>polyhedral na3o5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.002020290043919076</v>
+        <v>9.563580701538487e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>migration channel</t>
+          <t>mean jump distance</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0007880692749934876</v>
+        <v>0.0004429852015150521</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>polyhedron volume</t>
+          <t>atomic coordinates</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0007303309180283305</v>
+        <v>0.000570484286114187</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>polyhedral mo6</t>
+          <t>diffusion distance</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0003395085401516958</v>
+        <v>0.00139170009660713</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>polyhedral xo4</t>
+          <t>migration channels</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0003213989389923606</v>
+        <v>0.0009618381228685643</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>polyhedral na1o6</t>
+          <t>conducting pathway</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001141548573057811</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>polyhedral na2o8</t>
+          <t>diffusion channels</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001441118221705936</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>polyhedral na3o5</t>
+          <t>diffusion pathways</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9.563580701538489e-05</v>
+        <v>0.001311176015203351</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mean jump distance</t>
+          <t>bottleneck geometry</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0004429852015150521</v>
+        <v>0.0003998977319705685</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>atomic coordinates</t>
+          <t>conduction pathways</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.000570484286114187</v>
+        <v>0.001099513962226437</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>diffusion distance</t>
+          <t>transport pathway</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.00139170009660713</v>
+        <v>0.0009252220766417165</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>migration channels</t>
+          <t>na diffusion channels</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0009618381228685643</v>
+        <v>0.003460373023127473</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>conducting pathway</t>
+          <t>bottleneck m positions</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001141548573057811</v>
+        <v>0.00170444828238757</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>diffusion channels</t>
+          <t>ion conduction pathway</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001441118221705936</v>
+        <v>0.00306459105363817</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>diffusion pathways</t>
+          <t>coordination polyhedron</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001311176015203351</v>
+        <v>0.0004087438611268063</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bottleneck geometry</t>
+          <t>migration coordinate</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0003998977319705684</v>
+        <v>0.000662910466690502</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>conduction pathways</t>
+          <t>zr + ion conducting pathway</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001099513962226437</v>
+        <v>0.00219869388508842</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>transport pathway</t>
+          <t>sodium oxygen interatomic distance</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0009252220766417165</v>
+        <v>0.001923134926985153</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>na diffusion channels</t>
+          <t>dimensional atomic migration channels</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.003460373023127473</v>
+        <v>0.0009104245416282061</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bottleneck m positions</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.00170444828238757</v>
+        <v>0.0007219496244341089</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ion conduction pathway</t>
+          <t>standard deviation neighbor count</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.00306459105363817</v>
+        <v>0.0002772388563961365</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>coordination polyhedron</t>
+          <t>average neighbor count</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0004087438611268063</v>
+        <v>0.0003351526163890713</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>migration coordinate</t>
+          <t>average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.000662910466690502</v>
+        <v>0.0003039137352993999</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zr + ion conducting pathway</t>
+          <t>anion framework coordination</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.00219869388508842</v>
+        <v>0.001133291711701337</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sodium oxygen interatomic distance</t>
+          <t>average li-li bonds per</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.001923134926985153</v>
+        <v>0.0005946159880455006</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dimensional atomic migration channels</t>
+          <t>ratio average neighbor count average sublattice neighbor count</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0009104245416282061</v>
+        <v>0.0004726382119542091</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825377</v>
+        <v>0.003112969082825378</v>
       </c>
     </row>
     <row r="89">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.01125334138070249</v>
+        <v>0.0112533413807025</v>
       </c>
     </row>
     <row r="97">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>configurational entropy na+</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0001065012513025654</v>
+        <v>2.460658295174684e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 6b site</t>
+          <t>lattice distortion</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0005649033701903714</v>
+        <v>0.001323463838498494</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 18e site</t>
+          <t>configurate entropy</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0005393800968198916</v>
+        <v>0.0001421245233891093</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>configurational entropy na+ 36f site</t>
+          <t>configuration entropy na 6b</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0005155779514640215</v>
+        <v>0.002136070768422065</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>configurational entropy cationic m site</t>
+          <t>configuration entropy na 18e</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.001260845620802659</v>
+        <v>0.002104166676708965</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>configurational entropy cationic x site</t>
+          <t>configuration entropy na 36f</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001937100409961637</v>
+        <v>0.002074413995014127</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>configuration entropy na all</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.460658295174684e-06</v>
+        <v>0.002834882149106796</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lattice distortion</t>
+          <t>configuration entropy m</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.001323463838498493</v>
+        <v>0.001382178474702697</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>configurate entropy</t>
+          <t>configuration entropy x</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0001421245233891093</v>
+        <v>0.00250926978996766</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>configuration entropy na 6b</t>
+          <t>configurational entropy na+</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.002136070768422065</v>
+        <v>0.0001065012513025654</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>configuration entropy na 18e</t>
+          <t>configurational entropy na+ 6b site</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.002104166676708965</v>
+        <v>0.0005649033701903714</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>configuration entropy na 36f</t>
+          <t>configurational entropy na+ 18e site</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.002074413995014127</v>
+        <v>0.0005393800968198916</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>configuration entropy na all</t>
+          <t>configurational entropy na+ 36f site</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.002834882149106796</v>
+        <v>0.0005155779514640215</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>configuration entropy m</t>
+          <t>configurational entropy cationic m site</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.001382178474702697</v>
+        <v>0.001260845620802659</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>configuration entropy x</t>
+          <t>configurational entropy cationic x site</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.00250926978996766</v>
+        <v>0.001937100409961638</v>
       </c>
     </row>
     <row r="117">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405747</v>
+        <v>0.0005539660761405745</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274639</v>
+        <v>0.001137238343274638</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658615</v>
+        <v>0.0009550446629658617</v>
       </c>
     </row>
     <row r="122">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580388</v>
+        <v>0.001178628110580389</v>
       </c>
     </row>
     <row r="147">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.000536880687523946</v>
+        <v>0.0005368806875239458</v>
       </c>
     </row>
     <row r="164">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.003586548474760682</v>
+        <v>0.003586548474760681</v>
       </c>
     </row>
     <row r="166">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.001746033049348201</v>
+        <v>0.001746033049348202</v>
       </c>
     </row>
     <row r="167">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956491</v>
+        <v>0.001543626170956492</v>
       </c>
     </row>
     <row r="181">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00125615864299365</v>
+        <v>0.001256158642993651</v>
       </c>
     </row>
     <row r="186">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.004101724776200212</v>
+        <v>0.004101724776200211</v>
       </c>
     </row>
     <row r="191">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.002257040725385109</v>
+        <v>0.00225704072538511</v>
       </c>
     </row>
     <row r="200">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154044</v>
+        <v>0.001562511849154045</v>
       </c>
     </row>
     <row r="203">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.001860604473485499</v>
+        <v>0.0018606044734855</v>
       </c>
     </row>
     <row r="214">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221263</v>
+        <v>0.001470508898221264</v>
       </c>
     </row>
     <row r="216">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.002191318531156148</v>
+        <v>0.002191318531156149</v>
       </c>
     </row>
     <row r="217">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584515</v>
+        <v>0.001111078500584516</v>
       </c>
     </row>
     <row r="224">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>temperature structure is measured</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.008510643518455624</v>
+        <v>0.001291618145305144</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.001291618145305144</v>
+        <v>0.0005192980759577845</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>porosity</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0005192980759577845</v>
+        <v>0.0008571382493460673</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.0008571382493460674</v>
+        <v>0.007133312044343209</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>high porosity</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.007133312044343209</v>
+        <v>0.003380699845740061</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>high porosity</t>
+          <t>high pressure</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.003380699845740061</v>
+        <v>0.003766859880413741</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>high pressure</t>
+          <t>lower porosity</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.003766859880413741</v>
+        <v>0.001182585372839509</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>lower porosity</t>
+          <t>oxygen pressure</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.001182585372839509</v>
+        <v>0.001586292039812184</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>oxygen pressure</t>
+          <t>room temperature</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.001586292039812184</v>
+        <v>0.004695200402636743</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>room temperature</t>
+          <t>constant pressure</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.004695200402636743</v>
+        <v>0.001325738282527213</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>constant pressure</t>
+          <t>electrode porosity</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.001325738282527213</v>
+        <v>0.003082617593899171</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>electrode porosity</t>
+          <t>high oxygen pressure</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.003082617593899172</v>
+        <v>0.003138228565048902</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>high oxygen pressure</t>
+          <t>absolute temperature</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.003138228565048902</v>
+        <v>0.003738649907983262</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>absolute temperature</t>
+          <t>high oxygen pressures</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.003738649907983262</v>
+        <v>0.002784560351699376</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>high oxygen pressures</t>
+          <t>high room temperature</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.002784560351699376</v>
+        <v>0.005210834140265275</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>high room temperature</t>
+          <t>increasing temperature</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.005210834140265275</v>
+        <v>0.004319186124536074</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>increasing temperature</t>
+          <t>characteristic parameters</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.004319186124536074</v>
+        <v>0.001444656393823447</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>characteristic parameters</t>
+          <t>characteristic temperature</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.001444656393823447</v>
+        <v>0.003916875655204954</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>characteristic temperature</t>
+          <t>room temperature condition</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.003916875655204954</v>
+        <v>0.003306495071538911</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>room temperature condition</t>
+          <t>temperature structure is measured</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.003306495071538911</v>
+        <v>0.008510643518455624</v>
       </c>
     </row>
     <row r="247">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>energy landscape</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.004359422089863518</v>
+        <v>0.002207056437373055</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ewald summation energy</t>
+          <t>migration energy</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.001476053178478678</v>
+        <v>0.002746575258087343</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>formation energy competing phases</t>
+          <t>potential energy</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.002202768836370649</v>
+        <v>0.003499744367321371</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>energy landscape</t>
+          <t>migration entropy</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.002207056437373055</v>
+        <v>0.000708988736544693</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>migration energy</t>
+          <t>gibbs energy change</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.002746575258087343</v>
+        <v>0.001958372093651834</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>potential energy</t>
+          <t>oxygen vacancy formation</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.003499744367321371</v>
+        <v>0.001509324120535727</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>migration entropy</t>
+          <t>site energy landscapes</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.000708988736544693</v>
+        <v>0.002166541157013006</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>gibbs energy change</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.001958372093651834</v>
+        <v>0.004359422089863518</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>oxygen vacancy formation</t>
+          <t>formation energy competing phases</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.001509324120535727</v>
+        <v>0.002202768836370649</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>site energy landscapes</t>
+          <t>ewald summation energy</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.002166541157013006</v>
+        <v>0.001476053178478678</v>
       </c>
     </row>
     <row r="258">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693307</v>
+        <v>0.0007838477203693304</v>
       </c>
     </row>
     <row r="263">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.000852461307246853</v>
+        <v>0.0008524613072468531</v>
       </c>
     </row>
     <row r="272">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>r_m_avg/r_na</t>
+          <t>radius m1</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>0.001234630422278062</v>
       </c>
     </row>
     <row r="281">
@@ -4078,11 +4078,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ionic radius na</t>
+          <t>radius m2</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.004212298680333814</v>
+        <v>0.001031730750283539</v>
       </c>
     </row>
     <row r="282">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>average radius m site</t>
+          <t>radius x1</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.001800432529276043</v>
+        <v>0.0003703109925225022</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>average radius a site</t>
+          <t>radius x2</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.008615739872973623</v>
+        <v>0.000377583481644846</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ionic radius element m1</t>
+          <t>effective mean ionic radius m</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.001921388752054736</v>
+        <v>0.00197892717205667</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ionic radius element m2</t>
+          <t>effective mean ionic radius x</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.001819938916057475</v>
+        <v>0.002655181961215648</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ionic radius element x1</t>
+          <t>r_m_avg/r_na</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.001489229037176956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ionic radius element x2</t>
+          <t>ionic radius na</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.001492865281738128</v>
+        <v>0.004212298680333814</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>maximum deviation radius m site</t>
+          <t>average radius m site</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.001531627705409612</v>
+        <v>0.001800432529276043</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>maximum deviation radius a site</t>
+          <t>average radius a site</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.006983873580367677</v>
+        <v>0.008615739872973623</v>
       </c>
     </row>
     <row r="290">
@@ -4195,11 +4195,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>standard deviation radius m site</t>
+          <t>ionic radius element m1</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.001461045538704301</v>
+        <v>0.001921388752054736</v>
       </c>
     </row>
     <row r="291">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>standard deviation radius a site</t>
+          <t>ionic radius element m2</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.006913291413662366</v>
+        <v>0.001819938916057475</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>average effective ionic radius m site</t>
+          <t>ionic radius element x1</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.002087744972420328</v>
+        <v>0.001489229037176956</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>average effective ionic radius x site</t>
+          <t>ionic radius element x2</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.002651290630052809</v>
+        <v>0.001492865281738128</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ionic radius formulaic leftmost dopant</t>
+          <t>maximum deviation radius m site</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.001101651578942371</v>
+        <v>0.001531627705409612</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ionic radius formulaic rightmost dopant</t>
+          <t>maximum deviation radius a site</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.001101651578942371</v>
+        <v>0.006983873580367677</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulana</t>
+          <t>standard deviation radius m site</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001458940579302185</v>
+        <v>0.001461045538704301</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad2</t>
+          <t>standard deviation radius a site</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.001458614913745223</v>
+        <v>0.006913291413662366</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>calculated effective ionic radius according formulad3</t>
+          <t>average effective ionic radius m site</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.001458614913745223</v>
+        <v>0.002087744972420328</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>radius m1</t>
+          <t>average effective ionic radius x site</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.001234630422278062</v>
+        <v>0.00265129063005281</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>radius m2</t>
+          <t>ionic radius formulaic leftmost dopant</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.001031730750283539</v>
+        <v>0.001101651578942371</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>radius x1</t>
+          <t>ionic radius formulaic rightmost dopant</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.0003703109925225022</v>
+        <v>0.001101651578942371</v>
       </c>
     </row>
     <row r="302">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>radius x2</t>
+          <t>calculated effective ionic radius according formulana</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.000377583481644846</v>
+        <v>0.001458940579302185</v>
       </c>
     </row>
     <row r="303">
@@ -4364,11 +4364,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>effective mean ionic radius m</t>
+          <t>calculated effective ionic radius according formulad2</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.00197892717205667</v>
+        <v>0.001458614913745223</v>
       </c>
     </row>
     <row r="304">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>effective mean ionic radius x</t>
+          <t>calculated effective ionic radius according formulad3</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.002655181961215648</v>
+        <v>0.001458614913745223</v>
       </c>
     </row>
     <row r="305">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>volume na</t>
+          <t>volume m1</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.004432003182103851</v>
+        <v>0.001569913754577913</v>
       </c>
     </row>
     <row r="307">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>volume d2</t>
+          <t>volume m2</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.0007199976523165851</v>
+        <v>0.00136701408258339</v>
       </c>
     </row>
     <row r="308">
@@ -4429,11 +4429,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>volume d3</t>
+          <t>volume x1</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.0007036030149647164</v>
+        <v>0.0007055943248223536</v>
       </c>
     </row>
     <row r="309">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>volume per anion</t>
+          <t>volume x2</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.0009208424082509608</v>
+        <v>0.0007128668139446975</v>
       </c>
     </row>
     <row r="310">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>calculated effective volume species d1 according formula na</t>
+          <t>effective mean volume m</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.001857928280633279</v>
+        <v>0.001530436545872402</v>
       </c>
     </row>
     <row r="311">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>calculated effective volume species d2 according formula d2</t>
+          <t>effective mean volume x</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0009311472595299261</v>
+        <v>0.002375755032321125</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>calculated effective volume species d3 according formula d3</t>
+          <t>volume na</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0009229499408539918</v>
+        <v>0.004432003182103851</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>volume m1</t>
+          <t>volume d2</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.001569913754577913</v>
+        <v>0.0007199976523165851</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>volume m2</t>
+          <t>volume d3</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.00136701408258339</v>
+        <v>0.0007036030149647164</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>volume x1</t>
+          <t>volume per anion</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.0007055943248223536</v>
+        <v>0.0009208424082509607</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>volume x2</t>
+          <t>calculated effective volume species d1 according formula na</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0007128668139446975</v>
+        <v>0.001857928280633279</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>effective mean volume m</t>
+          <t>calculated effective volume species d2 according formula d2</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.001530436545872402</v>
+        <v>0.000931147259529926</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>effective mean volume x</t>
+          <t>calculated effective volume species d3 according formula d3</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.002375755032321125</v>
+        <v>0.0009229499408539918</v>
       </c>
     </row>
     <row r="319">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>valence element m1</t>
+          <t>valence m1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.001121864099506239</v>
+        <v>0.001296377238124671</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>valence element m2</t>
+          <t>valence m2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0009865976515098904</v>
+        <v>0.001093477566130148</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>valence element x1</t>
+          <t>valence x1</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.000545651146335866</v>
+        <v>0.0004320578083691112</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>valence element x2</t>
+          <t>valence x2</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.0005504994724174285</v>
+        <v>0.0004393302974914551</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>average ionic charge states m site</t>
+          <t>effective mean valence m</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.002434881002279985</v>
+        <v>0.001393668287645781</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>average ionic charge states a site</t>
+          <t>effective mean valence x</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.006978419231411706</v>
+        <v>0.002238986774094503</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>average effective ionic valence m site</t>
+          <t>valence element m1</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.002108327244369197</v>
+        <v>0.001121864099506239</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>average effective ionic valence x site</t>
+          <t>valence element m2</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.002671872902001679</v>
+        <v>0.0009865976515098904</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states m site</t>
+          <t>valence element x1</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.002152242060517686</v>
+        <v>0.000545651146335866</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>maximum deviation ionic charge states a site</t>
+          <t>valence element x2</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.006046703399773447</v>
+        <v>0.0005504994724174285</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states m site</t>
+          <t>average ionic charge states m site</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.002101826227156749</v>
+        <v>0.002434881002279985</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>standard deviation ionic charge states a site</t>
+          <t>average ionic charge states a site</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.00599628756641251</v>
+        <v>0.006978419231411706</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>valence m1</t>
+          <t>average effective ionic valence m site</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.001296377238124671</v>
+        <v>0.002108327244369197</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>valence m2</t>
+          <t>average effective ionic valence x site</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.001093477566130148</v>
+        <v>0.00267187290200168</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>valence x1</t>
+          <t>maximum deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.0004320578083691112</v>
+        <v>0.002152242060517686</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>valence x2</t>
+          <t>maximum deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.0004393302974914551</v>
+        <v>0.006046703399773447</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>effective mean valence m</t>
+          <t>standard deviation ionic charge states m site</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.001393668287645781</v>
+        <v>0.002101826227156749</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>effective mean valence x</t>
+          <t>standard deviation ionic charge states a site</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.002238986774094503</v>
+        <v>0.00599628756641251</v>
       </c>
     </row>
     <row r="338">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>x_m_avg-x_a</t>
+          <t>electronegativity m1</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>0.0009976443453290035</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>x_m_avg-x_na</t>
+          <t>electronegativity m2</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>0.00079474467333448</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>electronegativity na</t>
+          <t>electronegativity x1</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.003859733772854941</v>
+        <v>0.0001333249155734435</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>electronegativity dopant d2</t>
+          <t>electronegativity x2</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.0002203188044906544</v>
+        <v>0.0001405974046957873</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>electronegativity dopant d3</t>
+          <t>effective mean element electronegativity m</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.0002093890462560754</v>
+        <v>0.001150009037452233</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>electronegativity element m1</t>
+          <t>effective mean element electronegativity x</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.0009227088376424607</v>
+        <v>0.001826263826611211</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>electronegativity element m2</t>
+          <t>x_m_avg-x_a</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.0007874423896461118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>electronegativity element x1</t>
+          <t>x_m_avg-x_na</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.0003464958844720874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>electronegativity element x2</t>
+          <t>electronegativity na</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.0003513442105536499</v>
+        <v>0.003859733772854941</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>average electronegativity m site</t>
+          <t>electronegativity dopant d2</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.001681939490801513</v>
+        <v>0.0002203188044906544</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>average electronegativity a site</t>
+          <t>electronegativity dopant d3</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.008497246834499095</v>
+        <v>0.0002093890462560754</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>average effective electronegativity m site</t>
+          <t>electronegativity element m1</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.001521808267846081</v>
+        <v>0.0009227088376424607</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>average effective electronegativity x site</t>
+          <t>electronegativity element m2</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.002198063057005059</v>
+        <v>0.0007874423896461118</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity m site</t>
+          <t>electronegativity element x1</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.001436833274629989</v>
+        <v>0.0003464958844720874</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>maximum deviation electronegativity a site</t>
+          <t>electronegativity element x2</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.006889079149588054</v>
+        <v>0.0003513442105536499</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity m site</t>
+          <t>average electronegativity m site</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.001366251107924677</v>
+        <v>0.001681939490801513</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>standard deviation electronegativity a site</t>
+          <t>average electronegativity a site</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.006818496982882742</v>
+        <v>0.008497246834499095</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula na</t>
+          <t>average effective electronegativity m site</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.002076174567058643</v>
+        <v>0.001521808267846081</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d2</t>
+          <t>average effective electronegativity x site</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.0008388393904628878</v>
+        <v>0.002198063057005059</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>calculated effective electronegativity according formula d3</t>
+          <t>maximum deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.0008333745113455984</v>
+        <v>0.001436833274629989</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>electronegativity m1</t>
+          <t>maximum deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.0009976443453290035</v>
+        <v>0.006889079149588054</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>electronegativity m2</t>
+          <t>standard deviation electronegativity m site</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.00079474467333448</v>
+        <v>0.001366251107924677</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>electronegativity x1</t>
+          <t>standard deviation electronegativity a site</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.0001333249155734435</v>
+        <v>0.006818496982882742</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>electronegativity x2</t>
+          <t>calculated effective electronegativity according formula na</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.0001405974046957873</v>
+        <v>0.002076174567058643</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity m</t>
+          <t>calculated effective electronegativity according formula d2</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.001150009037452232</v>
+        <v>0.0008388393904628876</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>effective mean element electronegativity x</t>
+          <t>calculated effective electronegativity according formula d3</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.001826263826611211</v>
+        <v>0.0008333745113455982</v>
       </c>
     </row>
     <row r="365">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6.720949597350403e-05</v>
+        <v>6.720949597350402e-05</v>
       </c>
     </row>
     <row r="369">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548232</v>
+        <v>0.001280866176548231</v>
       </c>
     </row>
     <row r="373">
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00196891777563211</v>
+        <v>0.001968917775632111</v>
       </c>
     </row>
     <row r="374">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424964</v>
+        <v>0.002298593047424965</v>
       </c>
     </row>
     <row r="389">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.073525838704283e-05</v>
+        <v>7.073525838704285e-05</v>
       </c>
     </row>
     <row r="394">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.000736218867717932</v>
+        <v>0.0007362188677179321</v>
       </c>
     </row>
     <row r="398">
@@ -6041,11 +6041,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>na content</t>
+          <t>stoichiometric species na according formula</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.004651269131280118</v>
+        <v>0.002337618446657718</v>
       </c>
     </row>
     <row r="433">
@@ -6054,11 +6054,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>na+ concentration</t>
+          <t>na content</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.001329752006427784</v>
+        <v>0.004651269131280118</v>
       </c>
     </row>
     <row r="434">
@@ -6067,11 +6067,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>stoichiometric species m according formula</t>
+          <t>na+ concentration</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.001532230602647532</v>
+        <v>0.001329752006427784</v>
       </c>
     </row>
     <row r="435">
@@ -6080,11 +6080,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>stoichiometric species na according formula</t>
+          <t>stoichiometric species m according formula</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.002337618446657718</v>
+        <v>0.001532230602647532</v>
       </c>
     </row>
     <row r="436">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.003605113939389533</v>
+        <v>0.003605113939389532</v>
       </c>
     </row>
     <row r="437">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.004022120581204184</v>
+        <v>0.004022120581204183</v>
       </c>
     </row>
     <row r="452">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.003650223372555149</v>
+        <v>0.00365022337255515</v>
       </c>
     </row>
     <row r="482">

--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.0009097359817060787</v>
       </c>
     </row>
     <row r="16">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0008948576992959364</v>
+        <v>0.0008948576992959365</v>
       </c>
     </row>
     <row r="23">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000530063406420791</v>
+        <v>0.0005300634064207911</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.553809781950385e-05</v>
+        <v>9.553809781950386e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0007987545138137747</v>
+        <v>0.0007987545138137746</v>
       </c>
     </row>
     <row r="51">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0004087438611268063</v>
+        <v>0.0004087438611268064</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.000662910466690502</v>
+        <v>0.0006629104666905018</v>
       </c>
     </row>
     <row r="78">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825378</v>
+        <v>0.003112969082825377</v>
       </c>
     </row>
     <row r="89">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.001054815187755618</v>
+        <v>0.001054815187755617</v>
       </c>
     </row>
     <row r="101">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.001937100409961638</v>
+        <v>0.001937100409961637</v>
       </c>
     </row>
     <row r="117">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405745</v>
+        <v>0.0005539660761405747</v>
       </c>
     </row>
     <row r="120">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658617</v>
+        <v>0.0009550446629658615</v>
       </c>
     </row>
     <row r="122">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580389</v>
+        <v>0.001178628110580388</v>
       </c>
     </row>
     <row r="147">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239458</v>
+        <v>0.0005368806875239459</v>
       </c>
     </row>
     <row r="164">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.003586548474760681</v>
+        <v>0.003586548474760682</v>
       </c>
     </row>
     <row r="166">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.002449126469476327</v>
+        <v>0.002449126469476328</v>
       </c>
     </row>
     <row r="171">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.0005712414410057666</v>
+        <v>0.0005712414410057665</v>
       </c>
     </row>
     <row r="180">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956492</v>
+        <v>0.001543626170956491</v>
       </c>
     </row>
     <row r="181">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0009230472999397945</v>
+        <v>0.0009230472999397947</v>
       </c>
     </row>
     <row r="185">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001256158642993651</v>
+        <v>0.00125615864299365</v>
       </c>
     </row>
     <row r="186">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.0004690103210791399</v>
+        <v>0.0004690103210791398</v>
       </c>
     </row>
     <row r="190">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.004101724776200211</v>
+        <v>0.004101724776200212</v>
       </c>
     </row>
     <row r="191">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.00225704072538511</v>
+        <v>0.002257040725385109</v>
       </c>
     </row>
     <row r="200">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154045</v>
+        <v>0.001562511849154044</v>
       </c>
     </row>
     <row r="203">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.0018606044734855</v>
+        <v>0.001860604473485499</v>
       </c>
     </row>
     <row r="214">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584516</v>
+        <v>0.001111078500584515</v>
       </c>
     </row>
     <row r="224">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.0005192980759577845</v>
+        <v>0.0005192980759577844</v>
       </c>
     </row>
     <row r="229">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.001182585372839509</v>
+        <v>0.001182585372839508</v>
       </c>
     </row>
     <row r="234">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693304</v>
+        <v>0.0007838477203693307</v>
       </c>
     </row>
     <row r="263">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0005033512943713236</v>
+        <v>0.0005033512943713237</v>
       </c>
     </row>
     <row r="278">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.000931147259529926</v>
+        <v>0.0009311472595299261</v>
       </c>
     </row>
     <row r="318">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.00267187290200168</v>
+        <v>0.002671872902001679</v>
       </c>
     </row>
     <row r="334">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628876</v>
+        <v>0.0008388393904628878</v>
       </c>
     </row>
     <row r="364">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455982</v>
+        <v>0.0008333745113455984</v>
       </c>
     </row>
     <row r="365">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548231</v>
+        <v>0.001280866176548232</v>
       </c>
     </row>
     <row r="373">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424965</v>
+        <v>0.002298593047424964</v>
       </c>
     </row>
     <row r="389">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.073525838704285e-05</v>
+        <v>7.073525838704283e-05</v>
       </c>
     </row>
     <row r="394">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.0007362188677179321</v>
+        <v>0.000736218867717932</v>
       </c>
     </row>
     <row r="398">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598972</v>
+        <v>0.0006053509987598973</v>
       </c>
     </row>
     <row r="429">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002588462471217056</v>
+        <v>0.002588462471217055</v>
       </c>
     </row>
     <row r="440">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.002008650971178719</v>
+        <v>0.002008650971178718</v>
       </c>
     </row>
     <row r="450">
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.001559254954867141</v>
+        <v>0.001559254954867142</v>
       </c>
     </row>
     <row r="453">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.000873933936576687</v>
+        <v>0.0008739339365766871</v>
       </c>
     </row>
     <row r="455">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.0005131731318931881</v>
+        <v>0.000513173131893188</v>
       </c>
     </row>
     <row r="457">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.00365022337255515</v>
+        <v>0.003650223372555149</v>
       </c>
     </row>
     <row r="482">
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363168</v>
+        <v>0.0003452107280363169</v>
       </c>
     </row>
     <row r="484">

--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0004547220583226897</v>
+        <v>0.0004547220583226896</v>
       </c>
     </row>
     <row r="12">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060787</v>
+        <v>0.0009097359817060786</v>
       </c>
     </row>
     <row r="16">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0008948576992959365</v>
+        <v>0.0008948576992959364</v>
       </c>
     </row>
     <row r="23">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0005300634064207911</v>
+        <v>0.000530063406420791</v>
       </c>
     </row>
     <row r="30">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0008573697573699812</v>
+        <v>0.000857369757369981</v>
       </c>
     </row>
     <row r="43">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0004466228501727663</v>
+        <v>0.0004466228501727662</v>
       </c>
     </row>
     <row r="49">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0003998977319705685</v>
+        <v>0.0003998977319705684</v>
       </c>
     </row>
     <row r="71">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0006629104666905018</v>
+        <v>0.000662910466690502</v>
       </c>
     </row>
     <row r="78">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.001054815187755617</v>
+        <v>0.001054815187755618</v>
       </c>
     </row>
     <row r="101">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405747</v>
+        <v>0.0005539660761405746</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274638</v>
+        <v>0.001137238343274639</v>
       </c>
     </row>
     <row r="121">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0007400873456976665</v>
+        <v>0.0007400873456976664</v>
       </c>
     </row>
     <row r="126">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580388</v>
+        <v>0.001178628110580389</v>
       </c>
     </row>
     <row r="147">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239459</v>
+        <v>0.0005368806875239458</v>
       </c>
     </row>
     <row r="164">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.002449126469476328</v>
+        <v>0.002449126469476327</v>
       </c>
     </row>
     <row r="171">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.001543626170956491</v>
+        <v>0.001543626170956492</v>
       </c>
     </row>
     <row r="181">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00125615864299365</v>
+        <v>0.001256158642993651</v>
       </c>
     </row>
     <row r="186">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.002257040725385109</v>
+        <v>0.00225704072538511</v>
       </c>
     </row>
     <row r="200">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.001860604473485499</v>
+        <v>0.0018606044734855</v>
       </c>
     </row>
     <row r="214">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221264</v>
+        <v>0.001470508898221263</v>
       </c>
     </row>
     <row r="216">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.0005192980759577844</v>
+        <v>0.0005192980759577845</v>
       </c>
     </row>
     <row r="229">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.001182585372839508</v>
+        <v>0.001182585372839509</v>
       </c>
     </row>
     <row r="234">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693307</v>
+        <v>0.0007838477203693305</v>
       </c>
     </row>
     <row r="263">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0005033512943713237</v>
+        <v>0.0005033512943713236</v>
       </c>
     </row>
     <row r="278">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0009311472595299261</v>
+        <v>0.000931147259529926</v>
       </c>
     </row>
     <row r="318">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628878</v>
+        <v>0.0008388393904628876</v>
       </c>
     </row>
     <row r="364">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455984</v>
+        <v>0.0008333745113455982</v>
       </c>
     </row>
     <row r="365">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6.720949597350402e-05</v>
+        <v>6.720949597350403e-05</v>
       </c>
     </row>
     <row r="369">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548232</v>
+        <v>0.001280866176548231</v>
       </c>
     </row>
     <row r="373">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>8.086062712184776e-05</v>
+        <v>8.086062712184775e-05</v>
       </c>
     </row>
     <row r="390">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.001783021302593484</v>
+        <v>0.001783021302593485</v>
       </c>
     </row>
     <row r="420">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598973</v>
+        <v>0.0006053509987598972</v>
       </c>
     </row>
     <row r="429">
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.001559254954867142</v>
+        <v>0.001559254954867141</v>
       </c>
     </row>
     <row r="453">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.0008739339365766871</v>
+        <v>0.000873933936576687</v>
       </c>
     </row>
     <row r="455">
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363169</v>
+        <v>0.0003452107280363168</v>
       </c>
     </row>
     <row r="484">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.0007955697332072676</v>
+        <v>0.0007955697332072675</v>
       </c>
     </row>
     <row r="501">

--- a/data/TF-IDF/result_score.xlsx
+++ b/data/TF-IDF/result_score.xlsx
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009097359817060786</v>
+        <v>0.0009097359817060787</v>
       </c>
     </row>
     <row r="16">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001445496167104675</v>
+        <v>0.001445496167104674</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001431316570787742</v>
+        <v>0.001431316570787741</v>
       </c>
     </row>
     <row r="20">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.816994658251535e-05</v>
+        <v>7.816994658251536e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.002020290043919076</v>
+        <v>0.002020290043919075</v>
       </c>
     </row>
     <row r="56">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0003998977319705684</v>
+        <v>0.0003998977319705685</v>
       </c>
     </row>
     <row r="71">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.003112969082825377</v>
+        <v>0.003112969082825378</v>
       </c>
     </row>
     <row r="89">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0005649033701903714</v>
+        <v>0.0005649033701903713</v>
       </c>
     </row>
     <row r="113">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0005155779514640215</v>
+        <v>0.0005155779514640214</v>
       </c>
     </row>
     <row r="115">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0005539660761405746</v>
+        <v>0.0005539660761405747</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001137238343274639</v>
+        <v>0.001137238343274638</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0009550446629658615</v>
+        <v>0.0009550446629658617</v>
       </c>
     </row>
     <row r="122">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0007400873456976664</v>
+        <v>0.0007400873456976665</v>
       </c>
     </row>
     <row r="126">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.001178628110580389</v>
+        <v>0.001178628110580388</v>
       </c>
     </row>
     <row r="147">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0005368806875239458</v>
+        <v>0.0005368806875239459</v>
       </c>
     </row>
     <row r="164">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.001256158642993651</v>
+        <v>0.00125615864299365</v>
       </c>
     </row>
     <row r="186">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.001562511849154044</v>
+        <v>0.001562511849154045</v>
       </c>
     </row>
     <row r="203">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.0018606044734855</v>
+        <v>0.001860604473485499</v>
       </c>
     </row>
     <row r="214">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.001470508898221263</v>
+        <v>0.001470508898221264</v>
       </c>
     </row>
     <row r="216">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.001111078500584515</v>
+        <v>0.001111078500584516</v>
       </c>
     </row>
     <row r="224">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0008571382493460673</v>
+        <v>0.0008571382493460674</v>
       </c>
     </row>
     <row r="230">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.003082617593899171</v>
+        <v>0.003082617593899172</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.002166541157013006</v>
+        <v>0.002166541157013005</v>
       </c>
     </row>
     <row r="255">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.0007838477203693305</v>
+        <v>0.0007838477203693307</v>
       </c>
     </row>
     <row r="263">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.001461045538704301</v>
+        <v>0.0014610455387043</v>
       </c>
     </row>
     <row r="297">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.000931147259529926</v>
+        <v>0.0009311472595299261</v>
       </c>
     </row>
     <row r="318">
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.002198063057005059</v>
+        <v>0.002198063057005058</v>
       </c>
     </row>
     <row r="358">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.0008388393904628876</v>
+        <v>0.0008388393904628878</v>
       </c>
     </row>
     <row r="364">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.0008333745113455982</v>
+        <v>0.0008333745113455984</v>
       </c>
     </row>
     <row r="365">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.001280866176548231</v>
+        <v>0.001280866176548232</v>
       </c>
     </row>
     <row r="373">
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.0005512703550300337</v>
+        <v>0.0005512703550300338</v>
       </c>
     </row>
     <row r="386">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.0005585428441523774</v>
+        <v>0.0005585428441523775</v>
       </c>
     </row>
     <row r="387">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.002298593047424964</v>
+        <v>0.002298593047424965</v>
       </c>
     </row>
     <row r="389">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>8.086062712184775e-05</v>
+        <v>8.086062712184776e-05</v>
       </c>
     </row>
     <row r="390">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.000736218867717932</v>
+        <v>0.0007362188677179321</v>
       </c>
     </row>
     <row r="398">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.001783021302593485</v>
+        <v>0.001783021302593484</v>
       </c>
     </row>
     <row r="420">
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.000630874272130377</v>
+        <v>0.0006308742721303768</v>
       </c>
     </row>
     <row r="428">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.0006053509987598972</v>
+        <v>0.0006053509987598971</v>
       </c>
     </row>
     <row r="429">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.0005815488534040271</v>
+        <v>0.000581548853404027</v>
       </c>
     </row>
     <row r="430">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.002588462471217055</v>
+        <v>0.002588462471217056</v>
       </c>
     </row>
     <row r="440">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.002008650971178718</v>
+        <v>0.002008650971178719</v>
       </c>
     </row>
     <row r="450">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.000513173131893188</v>
+        <v>0.0005131731318931881</v>
       </c>
     </row>
     <row r="457">
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.0003452107280363168</v>
+        <v>0.0003452107280363169</v>
       </c>
     </row>
     <row r="484">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.0007955697332072675</v>
+        <v>0.0007955697332072676</v>
       </c>
     </row>
     <row r="501">
